--- a/Циклы простых чисел.xlsx
+++ b/Циклы простых чисел.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32250A4-1F55-46D6-93AD-CC26F6504CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2369F88-547B-46CB-B671-AA55A6A75136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="1815" windowWidth="25125" windowHeight="18015" xr2:uid="{D00942D1-BC5F-4107-A888-FDC3F432212E}"/>
+    <workbookView xWindow="7995" yWindow="2985" windowWidth="25125" windowHeight="18015" xr2:uid="{D00942D1-BC5F-4107-A888-FDC3F432212E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -127,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -467,6 +474,235 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -475,41 +711,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -517,55 +735,49 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,221 +789,19 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1581,10 +1591,10 @@
       <c r="AD14"/>
       <c r="AE14"/>
       <c r="AF14"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
       <c r="AK14"/>
       <c r="AL14"/>
       <c r="AM14"/>
@@ -1600,20 +1610,20 @@
       <c r="AW14"/>
     </row>
     <row r="15" spans="12:62" x14ac:dyDescent="0.25">
-      <c r="L15" s="109"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="109"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="31"/>
-      <c r="P15" s="109"/>
+      <c r="P15" s="62"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
       <c r="U15" s="31"/>
-      <c r="V15" s="109"/>
+      <c r="V15" s="62"/>
       <c r="W15" s="31"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
       <c r="Z15" s="31"/>
       <c r="AA15" s="31"/>
       <c r="AB15" s="31"/>
@@ -1653,20 +1663,20 @@
       <c r="BJ15" s="36"/>
     </row>
     <row r="16" spans="12:62" x14ac:dyDescent="0.25">
-      <c r="L16" s="109"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="31"/>
-      <c r="N16" s="109"/>
+      <c r="N16" s="62"/>
       <c r="O16" s="31"/>
-      <c r="P16" s="109"/>
+      <c r="P16" s="62"/>
       <c r="Q16" s="31"/>
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
       <c r="U16" s="31"/>
-      <c r="V16" s="109"/>
+      <c r="V16" s="62"/>
       <c r="W16" s="31"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="109"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
       <c r="AB16" s="31"/>
@@ -1707,198 +1717,198 @@
     </row>
     <row r="17" spans="12:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="12:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L18" s="42">
+      <c r="L18" s="104">
         <v>7</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="105">
         <v>1</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="109">
         <v>7</v>
       </c>
-      <c r="P18" s="125">
+      <c r="P18" s="121">
         <v>11</v>
       </c>
-      <c r="Q18" s="95">
+      <c r="Q18" s="55">
         <v>13</v>
       </c>
-      <c r="R18" s="77">
+      <c r="R18" s="123">
         <v>19</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="107">
         <v>23</v>
       </c>
-      <c r="T18" s="40">
+      <c r="T18" s="117">
         <v>29</v>
       </c>
-      <c r="U18" s="43">
+      <c r="U18" s="105">
         <v>31</v>
       </c>
-      <c r="V18" s="45">
+      <c r="V18" s="107">
         <v>37</v>
       </c>
-      <c r="W18" s="45">
+      <c r="W18" s="107">
         <v>41</v>
       </c>
-      <c r="X18" s="96">
+      <c r="X18" s="56">
         <v>43</v>
       </c>
-      <c r="Y18" s="82">
+      <c r="Y18" s="136">
         <v>49</v>
       </c>
-      <c r="Z18" s="45">
+      <c r="Z18" s="107">
         <v>53</v>
       </c>
-      <c r="AA18" s="40">
+      <c r="AA18" s="117">
         <v>59</v>
       </c>
-      <c r="AB18" s="43">
+      <c r="AB18" s="105">
         <v>61</v>
       </c>
-      <c r="AC18" s="45">
+      <c r="AC18" s="107">
         <v>67</v>
       </c>
-      <c r="AD18" s="45">
+      <c r="AD18" s="107">
         <v>71</v>
       </c>
-      <c r="AE18" s="105">
+      <c r="AE18" s="58">
         <v>73</v>
       </c>
-      <c r="AF18" s="45">
+      <c r="AF18" s="107">
         <v>79</v>
       </c>
-      <c r="AG18" s="45">
+      <c r="AG18" s="107">
         <v>83</v>
       </c>
-      <c r="AH18" s="40">
+      <c r="AH18" s="117">
         <v>89</v>
       </c>
-      <c r="AI18" s="84">
+      <c r="AI18" s="138">
         <v>91</v>
       </c>
-      <c r="AJ18" s="45">
+      <c r="AJ18" s="107">
         <v>97</v>
       </c>
-      <c r="AK18" s="45">
+      <c r="AK18" s="107">
         <v>101</v>
       </c>
-      <c r="AL18" s="96">
+      <c r="AL18" s="56">
         <v>107</v>
       </c>
-      <c r="AM18" s="45">
+      <c r="AM18" s="107">
         <v>109</v>
       </c>
-      <c r="AN18" s="45">
+      <c r="AN18" s="107">
         <v>113</v>
       </c>
-      <c r="AO18" s="86">
+      <c r="AO18" s="130">
         <v>119</v>
       </c>
-      <c r="AP18" s="88">
+      <c r="AP18" s="132">
         <v>121</v>
       </c>
-      <c r="AQ18" s="45">
+      <c r="AQ18" s="107">
         <v>127</v>
       </c>
-      <c r="AR18" s="45">
+      <c r="AR18" s="107">
         <v>131</v>
       </c>
-      <c r="AS18" s="107">
+      <c r="AS18" s="60">
         <v>133</v>
       </c>
-      <c r="AT18" s="45">
+      <c r="AT18" s="107">
         <v>139</v>
       </c>
-      <c r="AU18" s="90">
+      <c r="AU18" s="134">
         <v>143</v>
       </c>
-      <c r="AV18" s="92">
+      <c r="AV18" s="140">
         <v>149</v>
       </c>
-      <c r="AW18" s="94">
+      <c r="AW18" s="148">
         <v>151</v>
       </c>
-      <c r="AX18" s="45">
+      <c r="AX18" s="107">
         <v>157</v>
       </c>
-      <c r="AY18" s="90">
+      <c r="AY18" s="134">
         <v>161</v>
       </c>
-      <c r="AZ18" s="96">
+      <c r="AZ18" s="56">
         <v>163</v>
       </c>
-      <c r="BA18" s="90">
+      <c r="BA18" s="134">
         <v>169</v>
       </c>
-      <c r="BB18" s="45">
+      <c r="BB18" s="107">
         <v>173</v>
       </c>
-      <c r="BC18" s="92">
+      <c r="BC18" s="140">
         <v>179</v>
       </c>
-      <c r="BD18" s="53"/>
-      <c r="BE18" s="53"/>
-      <c r="BF18" s="53"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
     </row>
     <row r="19" spans="12:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="42"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="79">
+      <c r="L19" s="104"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="53">
         <v>17</v>
       </c>
-      <c r="R19" s="78"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
       <c r="X19" s="17">
         <v>47</v>
       </c>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="106">
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="114"/>
+      <c r="AD19" s="114"/>
+      <c r="AE19" s="59">
         <v>77</v>
       </c>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="83"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="114"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="114"/>
+      <c r="AK19" s="114"/>
       <c r="AL19" s="17">
         <v>103</v>
       </c>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="85"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="108">
+      <c r="AM19" s="114"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="131"/>
+      <c r="AP19" s="133"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="61">
         <v>137</v>
       </c>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="89"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="47"/>
-      <c r="AY19" s="89"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="135"/>
+      <c r="AV19" s="141"/>
+      <c r="AW19" s="149"/>
+      <c r="AX19" s="114"/>
+      <c r="AY19" s="135"/>
       <c r="AZ19" s="17">
         <v>167</v>
       </c>
-      <c r="BA19" s="89"/>
-      <c r="BB19" s="47"/>
-      <c r="BC19" s="91"/>
-      <c r="BD19" s="53"/>
-      <c r="BE19" s="53"/>
-      <c r="BF19" s="53"/>
+      <c r="BA19" s="135"/>
+      <c r="BB19" s="114"/>
+      <c r="BC19" s="141"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
     </row>
     <row r="20" spans="12:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N20"/>
@@ -1929,195 +1939,195 @@
       <c r="AM20"/>
       <c r="AN20"/>
       <c r="AO20"/>
-      <c r="BE20" s="54" t="s">
+      <c r="BE20" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="BF20" s="55"/>
-      <c r="BG20" s="55"/>
-      <c r="BH20" s="50" t="s">
+      <c r="BF20" s="126"/>
+      <c r="BG20" s="126"/>
+      <c r="BH20" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="50"/>
-      <c r="BK20" s="50"/>
-      <c r="BL20" s="56"/>
+      <c r="BI20" s="109"/>
+      <c r="BJ20" s="109"/>
+      <c r="BK20" s="109"/>
+      <c r="BL20" s="102"/>
     </row>
     <row r="21" spans="12:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N21" s="70">
+      <c r="N21" s="47">
         <v>0</v>
       </c>
-      <c r="O21" s="71">
+      <c r="O21" s="48">
         <f>(N21+3)*10</f>
         <v>30</v>
       </c>
-      <c r="P21" s="71">
+      <c r="P21" s="48">
         <f>(O21/10+3)*10</f>
         <v>60</v>
       </c>
-      <c r="Q21" s="71">
+      <c r="Q21" s="48">
         <f t="shared" ref="Q21:BC21" si="0">(P21/10+3)*10</f>
         <v>90</v>
       </c>
-      <c r="R21" s="71">
+      <c r="R21" s="48">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="S21" s="71">
+      <c r="S21" s="48">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="T21" s="72">
+      <c r="T21" s="49">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="U21" s="70">
+      <c r="U21" s="47">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="V21" s="71">
+      <c r="V21" s="48">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="W21" s="71">
+      <c r="W21" s="48">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="X21" s="71">
+      <c r="X21" s="48">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="Y21" s="117">
+      <c r="Y21" s="70">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="Z21" s="71">
+      <c r="Z21" s="48">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="AA21" s="72">
+      <c r="AA21" s="49">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="AB21" s="70">
+      <c r="AB21" s="47">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="AC21" s="71">
+      <c r="AC21" s="48">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="AD21" s="71">
+      <c r="AD21" s="48">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="AE21" s="71">
+      <c r="AE21" s="48">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="AF21" s="71">
+      <c r="AF21" s="48">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="AG21" s="71">
+      <c r="AG21" s="48">
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="AH21" s="72">
+      <c r="AH21" s="49">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="AI21" s="70">
+      <c r="AI21" s="47">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="AJ21" s="71">
+      <c r="AJ21" s="48">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="AK21" s="71">
+      <c r="AK21" s="48">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="AL21" s="71">
+      <c r="AL21" s="48">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="AM21" s="71">
+      <c r="AM21" s="48">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="AN21" s="71">
+      <c r="AN21" s="48">
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="AO21" s="72">
+      <c r="AO21" s="49">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="AP21" s="70">
+      <c r="AP21" s="47">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="AQ21" s="71">
+      <c r="AQ21" s="48">
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
-      <c r="AR21" s="71">
+      <c r="AR21" s="48">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="AS21" s="71">
+      <c r="AS21" s="48">
         <f t="shared" si="0"/>
         <v>930</v>
       </c>
-      <c r="AT21" s="71">
+      <c r="AT21" s="48">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="AU21" s="117">
+      <c r="AU21" s="70">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="AV21" s="72">
+      <c r="AV21" s="49">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
-      <c r="AW21" s="70">
+      <c r="AW21" s="47">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="AX21" s="71">
+      <c r="AX21" s="48">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="AY21" s="71">
+      <c r="AY21" s="48">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="AZ21" s="71">
+      <c r="AZ21" s="48">
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="BA21" s="71">
+      <c r="BA21" s="48">
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
-      <c r="BB21" s="71">
+      <c r="BB21" s="48">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="BC21" s="72">
+      <c r="BC21" s="49">
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="BE21" s="57"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="51"/>
-      <c r="BI21" s="51"/>
-      <c r="BJ21" s="51"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="76"/>
+      <c r="BE21" s="127"/>
+      <c r="BF21" s="128"/>
+      <c r="BG21" s="128"/>
+      <c r="BH21" s="120"/>
+      <c r="BI21" s="120"/>
+      <c r="BJ21" s="120"/>
+      <c r="BK21" s="120"/>
+      <c r="BL21" s="129"/>
     </row>
     <row r="22" spans="12:64" x14ac:dyDescent="0.25">
       <c r="L22" s="7">
@@ -2132,10 +2142,10 @@
       <c r="P22" s="9">
         <v>61</v>
       </c>
-      <c r="Q22" s="137">
+      <c r="Q22" s="85">
         <v>7</v>
       </c>
-      <c r="R22" s="111"/>
+      <c r="R22" s="64"/>
       <c r="S22" s="9">
         <v>151</v>
       </c>
@@ -2151,46 +2161,46 @@
       <c r="W22" s="9">
         <v>271</v>
       </c>
-      <c r="X22" s="137">
+      <c r="X22" s="85">
         <v>7</v>
       </c>
-      <c r="Y22" s="118">
+      <c r="Y22" s="71">
         <v>331</v>
       </c>
       <c r="Z22" s="24"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="8"/>
-      <c r="AC22" s="114"/>
+      <c r="AC22" s="67"/>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="137">
+      <c r="AE22" s="85">
         <v>7</v>
       </c>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="11"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="118"/>
+      <c r="AJ22" s="71"/>
       <c r="AK22" s="9"/>
-      <c r="AL22" s="137">
+      <c r="AL22" s="85">
         <f>721/$O$18</f>
         <v>103</v>
       </c>
       <c r="AM22" s="9"/>
-      <c r="AN22" s="114"/>
+      <c r="AN22" s="67"/>
       <c r="AO22" s="11"/>
       <c r="AP22" s="8"/>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
-      <c r="AS22" s="146">
+      <c r="AS22" s="94">
         <v>7</v>
       </c>
       <c r="AT22" s="9"/>
-      <c r="AU22" s="118"/>
+      <c r="AU22" s="71"/>
       <c r="AV22" s="11"/>
       <c r="AW22" s="32"/>
       <c r="AX22" s="33"/>
-      <c r="AY22" s="114"/>
-      <c r="AZ22" s="137">
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="85">
         <v>7</v>
       </c>
       <c r="BA22" s="33"/>
@@ -2200,26 +2210,26 @@
       <c r="BF22" s="6">
         <v>1</v>
       </c>
-      <c r="BG22" s="68">
+      <c r="BG22" s="99">
         <v>1</v>
       </c>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68">
+      <c r="BH22" s="99"/>
+      <c r="BI22" s="99">
         <f>3+1</f>
         <v>4</v>
       </c>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68">
+      <c r="BJ22" s="99"/>
+      <c r="BK22" s="99">
         <f>6+1</f>
         <v>7</v>
       </c>
-      <c r="BL22" s="69"/>
+      <c r="BL22" s="100"/>
     </row>
     <row r="23" spans="12:64" x14ac:dyDescent="0.25">
       <c r="L23" s="7">
         <v>7</v>
       </c>
-      <c r="N23" s="136">
+      <c r="N23" s="84">
         <v>7</v>
       </c>
       <c r="O23" s="9">
@@ -2237,8 +2247,8 @@
       <c r="S23" s="9">
         <v>157</v>
       </c>
-      <c r="T23" s="113"/>
-      <c r="U23" s="136">
+      <c r="T23" s="66"/>
+      <c r="U23" s="84">
         <v>7</v>
       </c>
       <c r="V23" s="12"/>
@@ -2248,7 +2258,7 @@
       <c r="X23" s="9">
         <v>307</v>
       </c>
-      <c r="Y23" s="118">
+      <c r="Y23" s="71">
         <v>337</v>
       </c>
       <c r="Z23" s="9">
@@ -2257,250 +2267,250 @@
       <c r="AA23" s="11">
         <v>397</v>
       </c>
-      <c r="AB23" s="136">
+      <c r="AB23" s="84">
         <v>7</v>
       </c>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="114"/>
+      <c r="AE23" s="67"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="11"/>
-      <c r="AI23" s="142">
+      <c r="AI23" s="90">
         <f>637/$O$18</f>
         <v>91</v>
       </c>
-      <c r="AJ23" s="118"/>
+      <c r="AJ23" s="71"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="11"/>
-      <c r="AP23" s="145">
+      <c r="AP23" s="93">
         <v>7</v>
       </c>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
       <c r="AT23" s="9"/>
-      <c r="AU23" s="118"/>
+      <c r="AU23" s="71"/>
       <c r="AV23" s="11"/>
-      <c r="AW23" s="136">
+      <c r="AW23" s="84">
         <v>7</v>
       </c>
       <c r="AX23" s="33"/>
       <c r="AY23" s="33"/>
       <c r="AZ23" s="33"/>
-      <c r="BA23" s="114"/>
+      <c r="BA23" s="67"/>
       <c r="BB23" s="33"/>
       <c r="BC23" s="37"/>
       <c r="BE23" s="32"/>
       <c r="BF23" s="13">
         <v>7</v>
       </c>
-      <c r="BG23" s="59">
+      <c r="BG23" s="98">
         <v>7</v>
       </c>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="61">
+      <c r="BH23" s="98"/>
+      <c r="BI23" s="40">
         <f>3+7</f>
         <v>10</v>
       </c>
-      <c r="BJ23" s="62">
+      <c r="BJ23" s="41">
         <f>1+0</f>
         <v>1</v>
       </c>
-      <c r="BK23" s="61">
+      <c r="BK23" s="40">
         <f>6+7</f>
         <v>13</v>
       </c>
-      <c r="BL23" s="63">
+      <c r="BL23" s="42">
         <f>1+3</f>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="12:64" x14ac:dyDescent="0.25">
-      <c r="N24" s="73">
+      <c r="N24" s="50">
         <v>10</v>
       </c>
-      <c r="O24" s="74">
+      <c r="O24" s="51">
         <f>(N24/10+3)*10</f>
         <v>40</v>
       </c>
-      <c r="P24" s="74">
+      <c r="P24" s="51">
         <f>(O24/10+3)*10</f>
         <v>70</v>
       </c>
-      <c r="Q24" s="74">
+      <c r="Q24" s="51">
         <f t="shared" ref="Q24:BC24" si="1">(P24/10+3)*10</f>
         <v>100</v>
       </c>
-      <c r="R24" s="74">
+      <c r="R24" s="51">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="S24" s="74">
+      <c r="S24" s="51">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="T24" s="75">
+      <c r="T24" s="52">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="U24" s="73">
+      <c r="U24" s="50">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="V24" s="74">
+      <c r="V24" s="51">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="W24" s="74">
+      <c r="W24" s="51">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="X24" s="74">
+      <c r="X24" s="51">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="Y24" s="119">
+      <c r="Y24" s="72">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="Z24" s="74">
+      <c r="Z24" s="51">
         <f t="shared" si="1"/>
         <v>370</v>
       </c>
-      <c r="AA24" s="75">
+      <c r="AA24" s="52">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="AB24" s="73">
+      <c r="AB24" s="50">
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="AC24" s="74">
+      <c r="AC24" s="51">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="AD24" s="74">
+      <c r="AD24" s="51">
         <f t="shared" si="1"/>
         <v>490</v>
       </c>
-      <c r="AE24" s="74">
+      <c r="AE24" s="51">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
-      <c r="AF24" s="74">
+      <c r="AF24" s="51">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="AG24" s="74">
+      <c r="AG24" s="51">
         <f t="shared" si="1"/>
         <v>580</v>
       </c>
-      <c r="AH24" s="75">
+      <c r="AH24" s="52">
         <f t="shared" si="1"/>
         <v>610</v>
       </c>
-      <c r="AI24" s="73">
+      <c r="AI24" s="50">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
-      <c r="AJ24" s="119">
+      <c r="AJ24" s="72">
         <f t="shared" si="1"/>
         <v>670</v>
       </c>
-      <c r="AK24" s="74">
+      <c r="AK24" s="51">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="AL24" s="74">
+      <c r="AL24" s="51">
         <f t="shared" si="1"/>
         <v>730</v>
       </c>
-      <c r="AM24" s="74">
+      <c r="AM24" s="51">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="AN24" s="74">
+      <c r="AN24" s="51">
         <f t="shared" si="1"/>
         <v>790</v>
       </c>
-      <c r="AO24" s="75">
+      <c r="AO24" s="52">
         <f t="shared" si="1"/>
         <v>820</v>
       </c>
-      <c r="AP24" s="73">
+      <c r="AP24" s="50">
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="AQ24" s="74">
+      <c r="AQ24" s="51">
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
-      <c r="AR24" s="74">
+      <c r="AR24" s="51">
         <f t="shared" si="1"/>
         <v>910</v>
       </c>
-      <c r="AS24" s="74">
+      <c r="AS24" s="51">
         <f t="shared" si="1"/>
         <v>940</v>
       </c>
-      <c r="AT24" s="74">
+      <c r="AT24" s="51">
         <f t="shared" si="1"/>
         <v>970</v>
       </c>
-      <c r="AU24" s="119">
+      <c r="AU24" s="72">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="AV24" s="75">
+      <c r="AV24" s="52">
         <f t="shared" si="1"/>
         <v>1030</v>
       </c>
-      <c r="AW24" s="73">
+      <c r="AW24" s="50">
         <f t="shared" si="1"/>
         <v>1060</v>
       </c>
-      <c r="AX24" s="74">
+      <c r="AX24" s="51">
         <f t="shared" si="1"/>
         <v>1090</v>
       </c>
-      <c r="AY24" s="74">
+      <c r="AY24" s="51">
         <f t="shared" si="1"/>
         <v>1120</v>
       </c>
-      <c r="AZ24" s="74">
+      <c r="AZ24" s="51">
         <f t="shared" si="1"/>
         <v>1150</v>
       </c>
-      <c r="BA24" s="74">
+      <c r="BA24" s="51">
         <f t="shared" si="1"/>
         <v>1180</v>
       </c>
-      <c r="BB24" s="74">
+      <c r="BB24" s="51">
         <f t="shared" si="1"/>
         <v>1210</v>
       </c>
-      <c r="BC24" s="75">
+      <c r="BC24" s="52">
         <f t="shared" si="1"/>
         <v>1240</v>
       </c>
-      <c r="BE24" s="97"/>
-      <c r="BF24" s="98"/>
-      <c r="BG24" s="98"/>
-      <c r="BH24" s="98"/>
-      <c r="BI24" s="98"/>
-      <c r="BJ24" s="98"/>
-      <c r="BK24" s="98"/>
-      <c r="BL24" s="99"/>
+      <c r="BE24" s="142"/>
+      <c r="BF24" s="143"/>
+      <c r="BG24" s="143"/>
+      <c r="BH24" s="143"/>
+      <c r="BI24" s="143"/>
+      <c r="BJ24" s="143"/>
+      <c r="BK24" s="143"/>
+      <c r="BL24" s="144"/>
     </row>
     <row r="25" spans="12:64" x14ac:dyDescent="0.25">
       <c r="L25" s="7">
         <v>1</v>
       </c>
-      <c r="N25" s="110">
+      <c r="N25" s="63">
         <v>11</v>
       </c>
       <c r="O25" s="9">
@@ -2515,7 +2525,7 @@
       <c r="R25" s="9">
         <v>131</v>
       </c>
-      <c r="S25" s="137">
+      <c r="S25" s="85">
         <v>7</v>
       </c>
       <c r="T25" s="11">
@@ -2531,8 +2541,8 @@
       <c r="X25" s="9">
         <v>311</v>
       </c>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="137">
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="85">
         <v>7</v>
       </c>
       <c r="AA25" s="11">
@@ -2543,16 +2553,16 @@
       <c r="AD25" s="9"/>
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
-      <c r="AG25" s="137">
+      <c r="AG25" s="85">
         <v>7</v>
       </c>
       <c r="AH25" s="11"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="122"/>
+      <c r="AJ25" s="75"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
-      <c r="AN25" s="137">
+      <c r="AN25" s="85">
         <f>791/$O$18</f>
         <v>113</v>
       </c>
@@ -2562,7 +2572,7 @@
       <c r="AR25" s="9"/>
       <c r="AS25" s="9"/>
       <c r="AT25" s="9"/>
-      <c r="AU25" s="147">
+      <c r="AU25" s="95">
         <v>7</v>
       </c>
       <c r="AV25" s="11"/>
@@ -2571,7 +2581,7 @@
       <c r="AY25" s="33"/>
       <c r="AZ25" s="33"/>
       <c r="BA25" s="33"/>
-      <c r="BB25" s="137">
+      <c r="BB25" s="85">
         <v>7</v>
       </c>
       <c r="BC25" s="37"/>
@@ -2579,27 +2589,27 @@
       <c r="BF25" s="13">
         <v>1</v>
       </c>
-      <c r="BG25" s="59">
+      <c r="BG25" s="98">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59">
+      <c r="BH25" s="98"/>
+      <c r="BI25" s="98">
         <f>4+1</f>
         <v>5</v>
       </c>
-      <c r="BJ25" s="59"/>
-      <c r="BK25" s="59">
+      <c r="BJ25" s="98"/>
+      <c r="BK25" s="98">
         <f>7+1</f>
         <v>8</v>
       </c>
-      <c r="BL25" s="60"/>
+      <c r="BL25" s="101"/>
     </row>
     <row r="26" spans="12:64" x14ac:dyDescent="0.25">
       <c r="L26" s="7">
         <v>3</v>
       </c>
-      <c r="N26" s="80">
+      <c r="N26" s="54">
         <v>13</v>
       </c>
       <c r="O26" s="9">
@@ -2611,7 +2621,7 @@
       <c r="Q26" s="9">
         <v>103</v>
       </c>
-      <c r="R26" s="137">
+      <c r="R26" s="85">
         <v>7</v>
       </c>
       <c r="S26" s="9">
@@ -2623,14 +2633,14 @@
       <c r="U26" s="8">
         <v>223</v>
       </c>
-      <c r="V26" s="111"/>
+      <c r="V26" s="64"/>
       <c r="W26" s="9">
         <v>283</v>
       </c>
       <c r="X26" s="9">
         <v>313</v>
       </c>
-      <c r="Y26" s="141">
+      <c r="Y26" s="89">
         <v>7</v>
       </c>
       <c r="Z26" s="9">
@@ -2641,16 +2651,16 @@
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9"/>
-      <c r="AF26" s="137">
+      <c r="AF26" s="85">
         <v>7</v>
       </c>
-      <c r="AG26" s="114"/>
+      <c r="AG26" s="67"/>
       <c r="AH26" s="11"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="118"/>
+      <c r="AJ26" s="71"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
-      <c r="AM26" s="137">
+      <c r="AM26" s="85">
         <f>763/$O$18</f>
         <v>109</v>
       </c>
@@ -2658,41 +2668,41 @@
       <c r="AO26" s="11"/>
       <c r="AP26" s="8"/>
       <c r="AQ26" s="9"/>
-      <c r="AR26" s="114"/>
+      <c r="AR26" s="67"/>
       <c r="AS26" s="9"/>
-      <c r="AT26" s="137">
+      <c r="AT26" s="85">
         <v>7</v>
       </c>
-      <c r="AU26" s="118"/>
+      <c r="AU26" s="71"/>
       <c r="AV26" s="11"/>
       <c r="AW26" s="32"/>
       <c r="AX26" s="33"/>
       <c r="AY26" s="33"/>
       <c r="AZ26" s="33"/>
-      <c r="BA26" s="146">
+      <c r="BA26" s="94">
         <v>7</v>
       </c>
       <c r="BB26" s="33"/>
-      <c r="BC26" s="127"/>
+      <c r="BC26" s="78"/>
       <c r="BE26" s="32"/>
       <c r="BF26" s="13">
         <v>3</v>
       </c>
-      <c r="BG26" s="59">
+      <c r="BG26" s="98">
         <f>1+3</f>
         <v>4</v>
       </c>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59">
+      <c r="BH26" s="98"/>
+      <c r="BI26" s="98">
         <f>4+3</f>
         <v>7</v>
       </c>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="61">
+      <c r="BJ26" s="98"/>
+      <c r="BK26" s="40">
         <f>7+3</f>
         <v>10</v>
       </c>
-      <c r="BL26" s="63">
+      <c r="BL26" s="42">
         <f>1+0</f>
         <v>1</v>
       </c>
@@ -2701,13 +2711,13 @@
       <c r="L27" s="7">
         <v>7</v>
       </c>
-      <c r="N27" s="80">
+      <c r="N27" s="54">
         <v>17</v>
       </c>
       <c r="O27" s="9">
         <v>47</v>
       </c>
-      <c r="P27" s="138">
+      <c r="P27" s="86">
         <v>7</v>
       </c>
       <c r="Q27" s="9">
@@ -2728,20 +2738,20 @@
       <c r="V27" s="9">
         <v>257</v>
       </c>
-      <c r="W27" s="137">
+      <c r="W27" s="85">
         <v>7</v>
       </c>
       <c r="X27" s="9">
         <v>317</v>
       </c>
-      <c r="Y27" s="118">
+      <c r="Y27" s="71">
         <v>347</v>
       </c>
       <c r="Z27" s="12"/>
-      <c r="AA27" s="113"/>
+      <c r="AA27" s="66"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="9"/>
-      <c r="AD27" s="137">
+      <c r="AD27" s="85">
         <v>7</v>
       </c>
       <c r="AE27" s="9"/>
@@ -2749,27 +2759,27 @@
       <c r="AG27" s="9"/>
       <c r="AH27" s="11"/>
       <c r="AI27" s="8"/>
-      <c r="AJ27" s="118"/>
-      <c r="AK27" s="137">
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="85">
         <f>707/$O$18</f>
         <v>101</v>
       </c>
-      <c r="AL27" s="114"/>
+      <c r="AL27" s="67"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
       <c r="AO27" s="11"/>
       <c r="AP27" s="8"/>
       <c r="AQ27" s="9"/>
-      <c r="AR27" s="137">
+      <c r="AR27" s="85">
         <v>7</v>
       </c>
       <c r="AS27" s="9"/>
       <c r="AT27" s="9"/>
-      <c r="AU27" s="118"/>
+      <c r="AU27" s="71"/>
       <c r="AV27" s="11"/>
-      <c r="AW27" s="116"/>
+      <c r="AW27" s="69"/>
       <c r="AX27" s="33"/>
-      <c r="AY27" s="146">
+      <c r="AY27" s="94">
         <v>7</v>
       </c>
       <c r="AZ27" s="33"/>
@@ -2780,24 +2790,24 @@
       <c r="BF27" s="13">
         <v>7</v>
       </c>
-      <c r="BG27" s="59">
+      <c r="BG27" s="98">
         <f>1+7</f>
         <v>8</v>
       </c>
-      <c r="BH27" s="59"/>
-      <c r="BI27" s="61">
+      <c r="BH27" s="98"/>
+      <c r="BI27" s="40">
         <f>4+7</f>
         <v>11</v>
       </c>
-      <c r="BJ27" s="62">
+      <c r="BJ27" s="41">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="BK27" s="61">
+      <c r="BK27" s="40">
         <f>7+7</f>
         <v>14</v>
       </c>
-      <c r="BL27" s="63">
+      <c r="BL27" s="42">
         <f>1+4</f>
         <v>5</v>
       </c>
@@ -2809,7 +2819,7 @@
       <c r="N28" s="8">
         <v>19</v>
       </c>
-      <c r="O28" s="137">
+      <c r="O28" s="85">
         <f>49/O18</f>
         <v>7</v>
       </c>
@@ -2829,12 +2839,12 @@
       <c r="U28" s="8">
         <v>229</v>
       </c>
-      <c r="V28" s="137">
+      <c r="V28" s="85">
         <v>7</v>
       </c>
       <c r="W28" s="15"/>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="118">
+      <c r="X28" s="64"/>
+      <c r="Y28" s="71">
         <v>349</v>
       </c>
       <c r="Z28" s="9">
@@ -2844,7 +2854,7 @@
         <v>409</v>
       </c>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="137">
+      <c r="AC28" s="85">
         <v>7</v>
       </c>
       <c r="AD28" s="9"/>
@@ -2852,8 +2862,8 @@
       <c r="AF28" s="9"/>
       <c r="AG28" s="9"/>
       <c r="AH28" s="11"/>
-      <c r="AI28" s="116"/>
-      <c r="AJ28" s="143">
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="91">
         <f>679/$O$18</f>
         <v>97</v>
       </c>
@@ -2863,16 +2873,16 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="11"/>
       <c r="AP28" s="8"/>
-      <c r="AQ28" s="137">
+      <c r="AQ28" s="85">
         <v>7</v>
       </c>
       <c r="AR28" s="9"/>
       <c r="AS28" s="9"/>
-      <c r="AT28" s="114"/>
-      <c r="AU28" s="118"/>
+      <c r="AT28" s="67"/>
+      <c r="AU28" s="71"/>
       <c r="AV28" s="11"/>
       <c r="AW28" s="32"/>
-      <c r="AX28" s="137">
+      <c r="AX28" s="85">
         <v>7</v>
       </c>
       <c r="AY28" s="33"/>
@@ -2884,207 +2894,207 @@
       <c r="BF28" s="13">
         <v>9</v>
       </c>
-      <c r="BG28" s="61">
+      <c r="BG28" s="40">
         <f>1+9</f>
         <v>10</v>
       </c>
-      <c r="BH28" s="62">
+      <c r="BH28" s="41">
         <f>1+0</f>
         <v>1</v>
       </c>
-      <c r="BI28" s="61">
+      <c r="BI28" s="40">
         <f>4+9</f>
         <v>13</v>
       </c>
-      <c r="BJ28" s="62">
+      <c r="BJ28" s="41">
         <f>1+3</f>
         <v>4</v>
       </c>
-      <c r="BK28" s="61">
+      <c r="BK28" s="40">
         <f>7+9</f>
         <v>16</v>
       </c>
-      <c r="BL28" s="63">
+      <c r="BL28" s="42">
         <f>1+6</f>
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="12:64" x14ac:dyDescent="0.25">
-      <c r="N29" s="73">
+      <c r="N29" s="50">
         <v>20</v>
       </c>
-      <c r="O29" s="74">
+      <c r="O29" s="51">
         <f>(N29/10+3)*10</f>
         <v>50</v>
       </c>
-      <c r="P29" s="74">
+      <c r="P29" s="51">
         <f>(O29/10+3)*10</f>
         <v>80</v>
       </c>
-      <c r="Q29" s="74">
+      <c r="Q29" s="51">
         <f t="shared" ref="Q29:BC29" si="2">(P29/10+3)*10</f>
         <v>110</v>
       </c>
-      <c r="R29" s="74">
+      <c r="R29" s="51">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="S29" s="74">
+      <c r="S29" s="51">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="T29" s="75">
+      <c r="T29" s="52">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="U29" s="73">
+      <c r="U29" s="50">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="V29" s="74">
+      <c r="V29" s="51">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="W29" s="74">
+      <c r="W29" s="51">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="X29" s="74">
+      <c r="X29" s="51">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="Y29" s="119">
+      <c r="Y29" s="72">
         <f t="shared" si="2"/>
         <v>350</v>
       </c>
-      <c r="Z29" s="74">
+      <c r="Z29" s="51">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="AA29" s="75">
+      <c r="AA29" s="52">
         <f t="shared" si="2"/>
         <v>410</v>
       </c>
-      <c r="AB29" s="73">
+      <c r="AB29" s="50">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="AC29" s="74">
+      <c r="AC29" s="51">
         <f t="shared" si="2"/>
         <v>470</v>
       </c>
-      <c r="AD29" s="74">
+      <c r="AD29" s="51">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="AE29" s="74">
+      <c r="AE29" s="51">
         <f t="shared" si="2"/>
         <v>530</v>
       </c>
-      <c r="AF29" s="74">
+      <c r="AF29" s="51">
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
-      <c r="AG29" s="74">
+      <c r="AG29" s="51">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
-      <c r="AH29" s="75">
+      <c r="AH29" s="52">
         <f t="shared" si="2"/>
         <v>620</v>
       </c>
-      <c r="AI29" s="73">
+      <c r="AI29" s="50">
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-      <c r="AJ29" s="119">
+      <c r="AJ29" s="72">
         <f t="shared" si="2"/>
         <v>680</v>
       </c>
-      <c r="AK29" s="74">
+      <c r="AK29" s="51">
         <f t="shared" si="2"/>
         <v>710</v>
       </c>
-      <c r="AL29" s="74">
+      <c r="AL29" s="51">
         <f t="shared" si="2"/>
         <v>740</v>
       </c>
-      <c r="AM29" s="74">
+      <c r="AM29" s="51">
         <f t="shared" si="2"/>
         <v>770</v>
       </c>
-      <c r="AN29" s="74">
+      <c r="AN29" s="51">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="AO29" s="75">
+      <c r="AO29" s="52">
         <f t="shared" si="2"/>
         <v>830</v>
       </c>
-      <c r="AP29" s="73">
+      <c r="AP29" s="50">
         <f t="shared" si="2"/>
         <v>860</v>
       </c>
-      <c r="AQ29" s="74">
+      <c r="AQ29" s="51">
         <f t="shared" si="2"/>
         <v>890</v>
       </c>
-      <c r="AR29" s="74">
+      <c r="AR29" s="51">
         <f t="shared" si="2"/>
         <v>920</v>
       </c>
-      <c r="AS29" s="74">
+      <c r="AS29" s="51">
         <f t="shared" si="2"/>
         <v>950</v>
       </c>
-      <c r="AT29" s="74">
+      <c r="AT29" s="51">
         <f t="shared" si="2"/>
         <v>980</v>
       </c>
-      <c r="AU29" s="119">
+      <c r="AU29" s="72">
         <f t="shared" si="2"/>
         <v>1010</v>
       </c>
-      <c r="AV29" s="75">
+      <c r="AV29" s="52">
         <f t="shared" si="2"/>
         <v>1040</v>
       </c>
-      <c r="AW29" s="73">
+      <c r="AW29" s="50">
         <f t="shared" si="2"/>
         <v>1070</v>
       </c>
-      <c r="AX29" s="74">
+      <c r="AX29" s="51">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="AY29" s="74">
+      <c r="AY29" s="51">
         <f t="shared" si="2"/>
         <v>1130</v>
       </c>
-      <c r="AZ29" s="74">
+      <c r="AZ29" s="51">
         <f t="shared" si="2"/>
         <v>1160</v>
       </c>
-      <c r="BA29" s="74">
+      <c r="BA29" s="51">
         <f t="shared" si="2"/>
         <v>1190</v>
       </c>
-      <c r="BB29" s="74">
+      <c r="BB29" s="51">
         <f t="shared" si="2"/>
         <v>1220</v>
       </c>
-      <c r="BC29" s="75">
+      <c r="BC29" s="52">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="BE29" s="97"/>
-      <c r="BF29" s="98"/>
-      <c r="BG29" s="98"/>
-      <c r="BH29" s="98"/>
-      <c r="BI29" s="98"/>
-      <c r="BJ29" s="98"/>
-      <c r="BK29" s="98"/>
-      <c r="BL29" s="99"/>
+      <c r="BE29" s="142"/>
+      <c r="BF29" s="143"/>
+      <c r="BG29" s="143"/>
+      <c r="BH29" s="143"/>
+      <c r="BI29" s="143"/>
+      <c r="BJ29" s="143"/>
+      <c r="BK29" s="143"/>
+      <c r="BL29" s="144"/>
     </row>
     <row r="30" spans="12:64" x14ac:dyDescent="0.25">
       <c r="L30" s="7">
@@ -3102,11 +3112,11 @@
       <c r="Q30" s="9">
         <v>113</v>
       </c>
-      <c r="R30" s="111"/>
+      <c r="R30" s="64"/>
       <c r="S30" s="9">
         <v>173</v>
       </c>
-      <c r="T30" s="140">
+      <c r="T30" s="88">
         <v>7</v>
       </c>
       <c r="U30" s="8">
@@ -3119,31 +3129,31 @@
         <v>293</v>
       </c>
       <c r="X30" s="15"/>
-      <c r="Y30" s="118">
+      <c r="Y30" s="71">
         <v>353</v>
       </c>
       <c r="Z30" s="9">
         <v>383</v>
       </c>
-      <c r="AA30" s="140">
+      <c r="AA30" s="88">
         <v>7</v>
       </c>
       <c r="AB30" s="8"/>
-      <c r="AC30" s="114"/>
+      <c r="AC30" s="67"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="9"/>
-      <c r="AH30" s="140">
+      <c r="AH30" s="88">
         <v>7</v>
       </c>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="118"/>
+      <c r="AJ30" s="71"/>
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="9"/>
-      <c r="AN30" s="114"/>
-      <c r="AO30" s="144">
+      <c r="AN30" s="67"/>
+      <c r="AO30" s="92">
         <f>833/$O$18</f>
         <v>119</v>
       </c>
@@ -3152,38 +3162,38 @@
       <c r="AR30" s="9"/>
       <c r="AS30" s="9"/>
       <c r="AT30" s="9"/>
-      <c r="AU30" s="118"/>
-      <c r="AV30" s="140">
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="88">
         <v>7</v>
       </c>
       <c r="AW30" s="32"/>
       <c r="AX30" s="33"/>
-      <c r="AY30" s="114"/>
+      <c r="AY30" s="67"/>
       <c r="AZ30" s="33"/>
       <c r="BA30" s="33"/>
       <c r="BB30" s="33"/>
-      <c r="BC30" s="140">
+      <c r="BC30" s="88">
         <v>7</v>
       </c>
       <c r="BE30" s="32"/>
       <c r="BF30" s="13">
         <v>3</v>
       </c>
-      <c r="BG30" s="59">
+      <c r="BG30" s="98">
         <f>2+3</f>
         <v>5</v>
       </c>
-      <c r="BH30" s="59"/>
-      <c r="BI30" s="59">
+      <c r="BH30" s="98"/>
+      <c r="BI30" s="98">
         <f>5+3</f>
         <v>8</v>
       </c>
-      <c r="BJ30" s="59"/>
-      <c r="BK30" s="61">
+      <c r="BJ30" s="98"/>
+      <c r="BK30" s="40">
         <f>8+3</f>
         <v>11</v>
       </c>
-      <c r="BL30" s="63">
+      <c r="BL30" s="42">
         <f>1+1</f>
         <v>2</v>
       </c>
@@ -3201,7 +3211,7 @@
       <c r="P31" s="17">
         <v>89</v>
       </c>
-      <c r="Q31" s="139">
+      <c r="Q31" s="87">
         <v>7</v>
       </c>
       <c r="R31" s="17">
@@ -3210,7 +3220,7 @@
       <c r="S31" s="17">
         <v>179</v>
       </c>
-      <c r="T31" s="112"/>
+      <c r="T31" s="65"/>
       <c r="U31" s="16">
         <v>239</v>
       </c>
@@ -3218,10 +3228,10 @@
         <v>269</v>
       </c>
       <c r="W31" s="18"/>
-      <c r="X31" s="139">
+      <c r="X31" s="87">
         <v>7</v>
       </c>
-      <c r="Y31" s="121">
+      <c r="Y31" s="74">
         <v>359</v>
       </c>
       <c r="Z31" s="17">
@@ -3231,77 +3241,77 @@
       <c r="AB31" s="16"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
-      <c r="AE31" s="115">
+      <c r="AE31" s="68">
         <v>7</v>
       </c>
       <c r="AF31" s="17"/>
       <c r="AG31" s="17"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="16"/>
-      <c r="AJ31" s="121"/>
+      <c r="AJ31" s="74"/>
       <c r="AK31" s="17"/>
-      <c r="AL31" s="139">
+      <c r="AL31" s="87">
         <f>749/$O$18</f>
         <v>107</v>
       </c>
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
       <c r="AO31" s="19"/>
-      <c r="AP31" s="123"/>
+      <c r="AP31" s="76"/>
       <c r="AQ31" s="17"/>
       <c r="AR31" s="17"/>
-      <c r="AS31" s="148">
+      <c r="AS31" s="96">
         <v>7</v>
       </c>
       <c r="AT31" s="17"/>
-      <c r="AU31" s="121"/>
+      <c r="AU31" s="74"/>
       <c r="AV31" s="19"/>
       <c r="AW31" s="30"/>
       <c r="AX31" s="34"/>
       <c r="AY31" s="34"/>
-      <c r="AZ31" s="148">
+      <c r="AZ31" s="96">
         <v>7</v>
       </c>
-      <c r="BA31" s="124"/>
+      <c r="BA31" s="77"/>
       <c r="BB31" s="34"/>
       <c r="BC31" s="35"/>
       <c r="BE31" s="30"/>
-      <c r="BF31" s="64">
+      <c r="BF31" s="43">
         <v>9</v>
       </c>
-      <c r="BG31" s="65">
+      <c r="BG31" s="44">
         <f>2+9</f>
         <v>11</v>
       </c>
-      <c r="BH31" s="66">
+      <c r="BH31" s="45">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="BI31" s="65">
+      <c r="BI31" s="44">
         <f>5+9</f>
         <v>14</v>
       </c>
-      <c r="BJ31" s="66">
+      <c r="BJ31" s="45">
         <f>1+4</f>
         <v>5</v>
       </c>
-      <c r="BK31" s="65">
+      <c r="BK31" s="44">
         <f>8+9</f>
         <v>17</v>
       </c>
-      <c r="BL31" s="67">
+      <c r="BL31" s="46">
         <f>1+7</f>
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="12:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N32" s="131" t="s">
+      <c r="N32" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="132" t="s">
+      <c r="O32" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="133" t="s">
+      <c r="P32" s="81" t="s">
         <v>4</v>
       </c>
       <c r="Q32" s="3">
@@ -3421,25 +3431,25 @@
       <c r="BC32" s="5">
         <v>42</v>
       </c>
-      <c r="BG32" s="128" t="s">
+      <c r="BG32" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="BH32" s="129"/>
-      <c r="BI32" s="129" t="s">
+      <c r="BH32" s="146"/>
+      <c r="BI32" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="BJ32" s="129"/>
-      <c r="BK32" s="129" t="s">
+      <c r="BJ32" s="146"/>
+      <c r="BK32" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="BL32" s="130"/>
+      <c r="BL32" s="147"/>
     </row>
     <row r="33" spans="12:90" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N33" s="134"/>
-      <c r="O33" s="134" t="s">
+      <c r="N33" s="82"/>
+      <c r="O33" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="134"/>
+      <c r="P33" s="82"/>
       <c r="Q33" s="33"/>
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
@@ -3479,12 +3489,12 @@
       <c r="BA33" s="33"/>
       <c r="BB33" s="33"/>
       <c r="BC33" s="33"/>
-      <c r="BG33" s="135"/>
-      <c r="BH33" s="135"/>
-      <c r="BI33" s="135"/>
-      <c r="BJ33" s="135"/>
-      <c r="BK33" s="135"/>
-      <c r="BL33" s="135"/>
+      <c r="BG33" s="83"/>
+      <c r="BH33" s="83"/>
+      <c r="BI33" s="83"/>
+      <c r="BJ33" s="83"/>
+      <c r="BK33" s="83"/>
+      <c r="BL33" s="83"/>
     </row>
     <row r="34" spans="12:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N34" s="23"/>
@@ -3531,31 +3541,31 @@
       <c r="BC34" s="1"/>
     </row>
     <row r="35" spans="12:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="42">
+      <c r="L35" s="104">
         <v>7</v>
       </c>
-      <c r="N35" s="100">
+      <c r="N35" s="111">
         <v>1</v>
       </c>
-      <c r="O35" s="50">
+      <c r="O35" s="109">
         <v>7</v>
       </c>
-      <c r="P35" s="50">
+      <c r="P35" s="109">
         <v>11</v>
       </c>
-      <c r="Q35" s="101">
+      <c r="Q35" s="57">
         <v>13</v>
       </c>
-      <c r="R35" s="50">
+      <c r="R35" s="109">
         <v>19</v>
       </c>
-      <c r="S35" s="50">
+      <c r="S35" s="109">
         <v>23</v>
       </c>
-      <c r="T35" s="56">
+      <c r="T35" s="102">
         <v>29</v>
       </c>
-      <c r="U35" s="52">
+      <c r="U35" s="116">
         <v>31</v>
       </c>
       <c r="BE35" s="27"/>
@@ -3594,17 +3604,17 @@
       <c r="CL35"/>
     </row>
     <row r="36" spans="12:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L36" s="42"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
+      <c r="L36" s="104"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="110"/>
       <c r="Q36" s="10">
         <v>17</v>
       </c>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="52"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="116"/>
       <c r="AJ36" s="23"/>
       <c r="AK36" s="23"/>
       <c r="AL36" s="23"/>
@@ -3638,14 +3648,14 @@
       <c r="CL36"/>
     </row>
     <row r="37" spans="12:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L37" s="42">
+      <c r="L37" s="104">
         <v>11</v>
       </c>
-      <c r="N37" s="43">
+      <c r="N37" s="105">
         <v>1</v>
       </c>
       <c r="O37" s="21"/>
-      <c r="P37" s="45">
+      <c r="P37" s="107">
         <v>7</v>
       </c>
       <c r="Q37" s="21"/>
@@ -3657,22 +3667,22 @@
         <v>17</v>
       </c>
       <c r="U37" s="21"/>
-      <c r="V37" s="45">
+      <c r="V37" s="107">
         <v>23</v>
       </c>
       <c r="W37" s="21"/>
-      <c r="X37" s="40">
+      <c r="X37" s="117">
         <v>29</v>
       </c>
-      <c r="Y37" s="39">
+      <c r="Y37" s="115">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="12:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="42"/>
-      <c r="N38" s="44"/>
+      <c r="L38" s="104"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="46"/>
+      <c r="P38" s="108"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9">
         <v>13</v>
@@ -3682,10 +3692,10 @@
         <v>19</v>
       </c>
       <c r="U38" s="9"/>
-      <c r="V38" s="46"/>
+      <c r="V38" s="108"/>
       <c r="W38" s="9"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="39"/>
+      <c r="X38" s="118"/>
+      <c r="Y38" s="115"/>
       <c r="AM38" s="23"/>
       <c r="AN38" s="23"/>
       <c r="AO38" s="23"/>
@@ -4034,25 +4044,25 @@
       <c r="L48" s="28">
         <v>7</v>
       </c>
-      <c r="AH48" s="43">
+      <c r="AH48" s="105">
         <v>1</v>
       </c>
-      <c r="AI48" s="45">
+      <c r="AI48" s="107">
         <v>7</v>
       </c>
-      <c r="AJ48" s="45">
+      <c r="AJ48" s="107">
         <v>11</v>
       </c>
       <c r="AK48" s="4">
         <v>13</v>
       </c>
-      <c r="AL48" s="45">
+      <c r="AL48" s="107">
         <v>19</v>
       </c>
-      <c r="AM48" s="45">
+      <c r="AM48" s="107">
         <v>23</v>
       </c>
-      <c r="AN48" s="40">
+      <c r="AN48" s="117">
         <v>29</v>
       </c>
       <c r="AO48" s="2">
@@ -4061,25 +4071,25 @@
     </row>
     <row r="49" spans="12:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L49" s="28"/>
-      <c r="AH49" s="49"/>
-      <c r="AI49" s="47"/>
-      <c r="AJ49" s="47"/>
+      <c r="AH49" s="113"/>
+      <c r="AI49" s="114"/>
+      <c r="AJ49" s="114"/>
       <c r="AK49" s="9">
         <v>17</v>
       </c>
-      <c r="AL49" s="47"/>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="48"/>
+      <c r="AL49" s="114"/>
+      <c r="AM49" s="114"/>
+      <c r="AN49" s="119"/>
     </row>
     <row r="50" spans="12:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L50" s="28">
         <v>11</v>
       </c>
-      <c r="AF50" s="43">
+      <c r="AF50" s="105">
         <v>1</v>
       </c>
       <c r="AG50" s="21"/>
-      <c r="AH50" s="45">
+      <c r="AH50" s="107">
         <v>7</v>
       </c>
       <c r="AI50" s="21"/>
@@ -4091,22 +4101,22 @@
         <v>17</v>
       </c>
       <c r="AM50" s="21"/>
-      <c r="AN50" s="45">
+      <c r="AN50" s="107">
         <v>23</v>
       </c>
       <c r="AO50" s="21"/>
-      <c r="AP50" s="40">
+      <c r="AP50" s="117">
         <v>29</v>
       </c>
-      <c r="AQ50" s="44">
+      <c r="AQ50" s="106">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="12:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L51" s="28"/>
-      <c r="AF51" s="49"/>
+      <c r="AF51" s="113"/>
       <c r="AG51" s="9"/>
-      <c r="AH51" s="47"/>
+      <c r="AH51" s="114"/>
       <c r="AI51" s="9"/>
       <c r="AJ51" s="9">
         <v>13</v>
@@ -4116,10 +4126,10 @@
         <v>19</v>
       </c>
       <c r="AM51" s="9"/>
-      <c r="AN51" s="47"/>
+      <c r="AN51" s="114"/>
       <c r="AO51" s="9"/>
-      <c r="AP51" s="48"/>
-      <c r="AQ51" s="49"/>
+      <c r="AP51" s="119"/>
+      <c r="AQ51" s="113"/>
     </row>
     <row r="52" spans="12:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L52" s="28">
@@ -4728,15 +4738,6 @@
     <mergeCell ref="AN50:AN51"/>
     <mergeCell ref="AP50:AP51"/>
     <mergeCell ref="AQ50:AQ51"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="BE24:BL24"/>
-    <mergeCell ref="BE29:BL29"/>
-    <mergeCell ref="AH48:AH49"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AJ48:AJ49"/>
-    <mergeCell ref="AL48:AL49"/>
-    <mergeCell ref="AM48:AM49"/>
     <mergeCell ref="AN48:AN49"/>
     <mergeCell ref="BG32:BH32"/>
     <mergeCell ref="BI32:BJ32"/>
@@ -4744,18 +4745,21 @@
     <mergeCell ref="AV18:AV19"/>
     <mergeCell ref="AW18:AW19"/>
     <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="AH48:AH49"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AJ48:AJ49"/>
+    <mergeCell ref="AL48:AL49"/>
+    <mergeCell ref="AM48:AM49"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
     <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BA18:BA19"/>
     <mergeCell ref="AD18:AD19"/>
     <mergeCell ref="AF18:AF19"/>
     <mergeCell ref="AG18:AG19"/>
     <mergeCell ref="AH18:AH19"/>
     <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AC18:AC19"/>
     <mergeCell ref="BE20:BG21"/>
     <mergeCell ref="BH20:BL21"/>
     <mergeCell ref="AJ18:AJ19"/>
@@ -4768,6 +4772,9 @@
     <mergeCell ref="AR18:AR19"/>
     <mergeCell ref="AT18:AT19"/>
     <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="BC18:BC19"/>
     <mergeCell ref="S18:S19"/>
     <mergeCell ref="T18:T19"/>
     <mergeCell ref="L18:L19"/>
@@ -4780,12 +4787,13 @@
     <mergeCell ref="W18:W19"/>
     <mergeCell ref="Y37:Y38"/>
     <mergeCell ref="U35:U36"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="Y18:Y19"/>
     <mergeCell ref="T35:T36"/>
     <mergeCell ref="L37:L38"/>
     <mergeCell ref="N37:N38"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="V37:V38"/>
-    <mergeCell ref="X37:X38"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="N35:N36"/>
@@ -4797,15 +4805,4487 @@
     <mergeCell ref="BG22:BH22"/>
     <mergeCell ref="BI22:BJ22"/>
     <mergeCell ref="BI25:BJ25"/>
+    <mergeCell ref="BG25:BH25"/>
+    <mergeCell ref="BG23:BH23"/>
+    <mergeCell ref="BE24:BL24"/>
     <mergeCell ref="BI26:BJ26"/>
     <mergeCell ref="BI30:BJ30"/>
     <mergeCell ref="BG30:BH30"/>
     <mergeCell ref="BG27:BH27"/>
     <mergeCell ref="BG26:BH26"/>
-    <mergeCell ref="BG25:BH25"/>
-    <mergeCell ref="BG23:BH23"/>
+    <mergeCell ref="BE29:BL29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CBD3DC-C9D9-4340-803D-5C114C7E2615}">
+  <dimension ref="C4:AW65"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X72" sqref="X72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="7" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27">
+        <f>C4+30</f>
+        <v>30</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:M4" si="0">D4+30</f>
+        <v>60</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G4" s="27">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H4" s="27">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="K4" s="27">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="M4" s="27">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="O4" s="97">
+        <v>0</v>
+      </c>
+      <c r="P4" s="97">
+        <f>O4+30</f>
+        <v>30</v>
+      </c>
+      <c r="Q4" s="97">
+        <f t="shared" ref="Q4:Y4" si="1">P4+30</f>
+        <v>60</v>
+      </c>
+      <c r="R4" s="97">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="S4" s="97">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="T4" s="97">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="U4" s="97">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="V4" s="97">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="W4" s="97">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="X4" s="97">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="Y4" s="97">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27">
+        <f t="shared" ref="D5:M34" si="2">C5+30</f>
+        <v>31</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="G5" s="27">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="2"/>
+        <v>211</v>
+      </c>
+      <c r="K5" s="27">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="M5" s="27">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" ref="P5:Y20" si="3">O5+30</f>
+        <v>31</v>
+      </c>
+      <c r="Q5" s="27">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="R5" s="27">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="S5" s="27">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="T5" s="27">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="U5" s="27">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="V5" s="27">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="W5" s="27">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="X5" s="27">
+        <f t="shared" si="3"/>
+        <v>271</v>
+      </c>
+      <c r="Y5" s="27">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="27">
+        <f t="shared" ref="AB5:AK5" si="4">AA5+30</f>
+        <v>31</v>
+      </c>
+      <c r="AC5" s="27">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="AD5" s="27">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="AE5" s="27">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="AF5" s="27">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="AG5" s="27">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="AH5" s="27">
+        <f t="shared" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="AI5" s="27">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="AJ5" s="27">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="AK5" s="27">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="AM5" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="31">
+        <f t="shared" ref="AN5:AW5" si="5">AM5+30</f>
+        <v>31</v>
+      </c>
+      <c r="AO5" s="31">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="AP5" s="31">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="AQ5" s="31">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="AR5" s="31">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+      <c r="AS5" s="31">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="AT5" s="31">
+        <f t="shared" si="5"/>
+        <v>211</v>
+      </c>
+      <c r="AU5" s="31">
+        <f t="shared" si="5"/>
+        <v>241</v>
+      </c>
+      <c r="AV5" s="31">
+        <f t="shared" si="5"/>
+        <v>271</v>
+      </c>
+      <c r="AW5" s="31">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="27">
+        <v>2</v>
+      </c>
+      <c r="D6" s="27">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="H6" s="27">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="M6" s="27">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="O6" s="97">
+        <v>2</v>
+      </c>
+      <c r="P6" s="97">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="Q6" s="97">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="R6" s="97">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="S6" s="97">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="T6" s="97">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="U6" s="97">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="V6" s="97">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="W6" s="97">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="X6" s="97">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+      <c r="Y6" s="97">
+        <f t="shared" si="3"/>
+        <v>302</v>
+      </c>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="31"/>
+      <c r="AW6" s="31"/>
+    </row>
+    <row r="7" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="27">
+        <v>3</v>
+      </c>
+      <c r="D7" s="27">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="O7" s="27">
+        <v>3</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="Q7" s="27">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="R7" s="27">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="S7" s="27">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="T7" s="27">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="U7" s="27">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="V7" s="27">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="W7" s="27">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="X7" s="27">
+        <f t="shared" si="3"/>
+        <v>273</v>
+      </c>
+      <c r="Y7" s="27">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="AA7" s="97">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="97">
+        <f t="shared" ref="AB7:AK7" si="6">AA7+30</f>
+        <v>33</v>
+      </c>
+      <c r="AC7" s="97">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="AD7" s="97">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="AE7" s="97">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="AF7" s="97">
+        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="AG7" s="97">
+        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="AH7" s="97">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="AI7" s="97">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="AJ7" s="97">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="AK7" s="97">
+        <f t="shared" si="6"/>
+        <v>303</v>
+      </c>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="31"/>
+      <c r="AW7" s="31"/>
+    </row>
+    <row r="8" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="27">
+        <v>4</v>
+      </c>
+      <c r="D8" s="27">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="O8" s="97">
+        <v>4</v>
+      </c>
+      <c r="P8" s="97">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="Q8" s="97">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="R8" s="97">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="S8" s="97">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="T8" s="97">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="U8" s="97">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+      <c r="V8" s="97">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="W8" s="97">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="X8" s="97">
+        <f t="shared" si="3"/>
+        <v>274</v>
+      </c>
+      <c r="Y8" s="97">
+        <f t="shared" si="3"/>
+        <v>304</v>
+      </c>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31"/>
+      <c r="AW8" s="31"/>
+    </row>
+    <row r="9" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="27">
+        <v>5</v>
+      </c>
+      <c r="D9" s="27">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="O9" s="97">
+        <v>5</v>
+      </c>
+      <c r="P9" s="97">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="Q9" s="97">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="R9" s="97">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="S9" s="97">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="T9" s="97">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="U9" s="97">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="V9" s="97">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="W9" s="97">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="X9" s="97">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="Y9" s="97">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+    </row>
+    <row r="10" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="27">
+        <v>6</v>
+      </c>
+      <c r="D10" s="27">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="O10" s="97">
+        <v>6</v>
+      </c>
+      <c r="P10" s="97">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="Q10" s="97">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="R10" s="97">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="S10" s="97">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="T10" s="97">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="U10" s="97">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="V10" s="97">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="W10" s="97">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="X10" s="97">
+        <f t="shared" si="3"/>
+        <v>276</v>
+      </c>
+      <c r="Y10" s="97">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+    </row>
+    <row r="11" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="27">
+        <v>7</v>
+      </c>
+      <c r="D11" s="27">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="H11" s="27">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="M11" s="27">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="O11" s="27">
+        <v>7</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="Q11" s="27">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="R11" s="27">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="S11" s="27">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="T11" s="27">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="U11" s="27">
+        <f t="shared" si="3"/>
+        <v>187</v>
+      </c>
+      <c r="V11" s="27">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="W11" s="27">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="X11" s="27">
+        <f t="shared" si="3"/>
+        <v>277</v>
+      </c>
+      <c r="Y11" s="27">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="AA11" s="27">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="27">
+        <f t="shared" ref="AB11:AK11" si="7">AA11+30</f>
+        <v>37</v>
+      </c>
+      <c r="AC11" s="27">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="AD11" s="27">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="AE11" s="27">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AF11" s="27">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+      <c r="AG11" s="27">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="AH11" s="27">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+      <c r="AI11" s="27">
+        <f t="shared" si="7"/>
+        <v>247</v>
+      </c>
+      <c r="AJ11" s="27">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+      <c r="AK11" s="27">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+      <c r="AM11" s="31">
+        <v>7</v>
+      </c>
+      <c r="AN11" s="31">
+        <f t="shared" ref="AN11:AW11" si="8">AM11+30</f>
+        <v>37</v>
+      </c>
+      <c r="AO11" s="31">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="AP11" s="31">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="AQ11" s="31">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="AR11" s="31">
+        <f t="shared" si="8"/>
+        <v>157</v>
+      </c>
+      <c r="AS11" s="31">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="AT11" s="31">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="AU11" s="31">
+        <f t="shared" si="8"/>
+        <v>247</v>
+      </c>
+      <c r="AV11" s="31">
+        <f t="shared" si="8"/>
+        <v>277</v>
+      </c>
+      <c r="AW11" s="31">
+        <f t="shared" si="8"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="27">
+        <v>8</v>
+      </c>
+      <c r="D12" s="27">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="H12" s="27">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="L12" s="27">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="O12" s="97">
+        <v>8</v>
+      </c>
+      <c r="P12" s="97">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="Q12" s="97">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="R12" s="97">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="S12" s="97">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="T12" s="97">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="U12" s="97">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="V12" s="97">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="W12" s="97">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="X12" s="97">
+        <f t="shared" si="3"/>
+        <v>278</v>
+      </c>
+      <c r="Y12" s="97">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+    </row>
+    <row r="13" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="27">
+        <v>9</v>
+      </c>
+      <c r="D13" s="27">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="H13" s="27">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="2"/>
+        <v>309</v>
+      </c>
+      <c r="O13" s="27">
+        <v>9</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="Q13" s="27">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="R13" s="27">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="S13" s="27">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="T13" s="27">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="U13" s="27">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="V13" s="27">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="W13" s="27">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="X13" s="27">
+        <f t="shared" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="Y13" s="27">
+        <f t="shared" si="3"/>
+        <v>309</v>
+      </c>
+      <c r="AA13" s="97">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="97">
+        <f t="shared" ref="AB13:AK13" si="9">AA13+30</f>
+        <v>39</v>
+      </c>
+      <c r="AC13" s="97">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="AD13" s="97">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="AE13" s="97">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="AF13" s="97">
+        <f t="shared" si="9"/>
+        <v>159</v>
+      </c>
+      <c r="AG13" s="97">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+      <c r="AH13" s="97">
+        <f t="shared" si="9"/>
+        <v>219</v>
+      </c>
+      <c r="AI13" s="97">
+        <f t="shared" si="9"/>
+        <v>249</v>
+      </c>
+      <c r="AJ13" s="97">
+        <f t="shared" si="9"/>
+        <v>279</v>
+      </c>
+      <c r="AK13" s="97">
+        <f t="shared" si="9"/>
+        <v>309</v>
+      </c>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+    </row>
+    <row r="14" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="27">
+        <v>10</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="H14" s="27">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="J14" s="27">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="K14" s="27">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="M14" s="27">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="O14" s="97">
+        <v>10</v>
+      </c>
+      <c r="P14" s="97">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q14" s="97">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="R14" s="97">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S14" s="97">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="T14" s="97">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="U14" s="97">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="V14" s="97">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="W14" s="97">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="X14" s="97">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="Y14" s="97">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="31"/>
+    </row>
+    <row r="15" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="27">
+        <v>11</v>
+      </c>
+      <c r="D15" s="27">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F15" s="27">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G15" s="27">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="H15" s="27">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="M15" s="27">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="O15" s="27">
+        <v>11</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="Q15" s="27">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="R15" s="27">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="S15" s="27">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="T15" s="27">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="U15" s="27">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
+      <c r="V15" s="27">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="W15" s="27">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="X15" s="27">
+        <f t="shared" si="3"/>
+        <v>281</v>
+      </c>
+      <c r="Y15" s="27">
+        <f t="shared" si="3"/>
+        <v>311</v>
+      </c>
+      <c r="AA15" s="27">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="27">
+        <f t="shared" ref="AB15:AK15" si="10">AA15+30</f>
+        <v>41</v>
+      </c>
+      <c r="AC15" s="27">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="AD15" s="27">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="AE15" s="27">
+        <f t="shared" si="10"/>
+        <v>131</v>
+      </c>
+      <c r="AF15" s="27">
+        <f t="shared" si="10"/>
+        <v>161</v>
+      </c>
+      <c r="AG15" s="27">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="AH15" s="27">
+        <f t="shared" si="10"/>
+        <v>221</v>
+      </c>
+      <c r="AI15" s="27">
+        <f t="shared" si="10"/>
+        <v>251</v>
+      </c>
+      <c r="AJ15" s="27">
+        <f t="shared" si="10"/>
+        <v>281</v>
+      </c>
+      <c r="AK15" s="27">
+        <f t="shared" si="10"/>
+        <v>311</v>
+      </c>
+      <c r="AM15" s="31">
+        <v>11</v>
+      </c>
+      <c r="AN15" s="31">
+        <f t="shared" ref="AN15:AW15" si="11">AM15+30</f>
+        <v>41</v>
+      </c>
+      <c r="AO15" s="31">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="AP15" s="31">
+        <f t="shared" si="11"/>
+        <v>101</v>
+      </c>
+      <c r="AQ15" s="31">
+        <f t="shared" si="11"/>
+        <v>131</v>
+      </c>
+      <c r="AR15" s="31">
+        <f t="shared" si="11"/>
+        <v>161</v>
+      </c>
+      <c r="AS15" s="31">
+        <f t="shared" si="11"/>
+        <v>191</v>
+      </c>
+      <c r="AT15" s="31">
+        <f t="shared" si="11"/>
+        <v>221</v>
+      </c>
+      <c r="AU15" s="31">
+        <f t="shared" si="11"/>
+        <v>251</v>
+      </c>
+      <c r="AV15" s="31">
+        <f t="shared" si="11"/>
+        <v>281</v>
+      </c>
+      <c r="AW15" s="31">
+        <f t="shared" si="11"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="27">
+        <v>12</v>
+      </c>
+      <c r="D16" s="27">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F16" s="27">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="L16" s="27">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="M16" s="27">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="O16" s="97">
+        <v>12</v>
+      </c>
+      <c r="P16" s="97">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="Q16" s="97">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="R16" s="97">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="S16" s="97">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="T16" s="97">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="U16" s="97">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="V16" s="97">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="W16" s="97">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="X16" s="97">
+        <f t="shared" si="3"/>
+        <v>282</v>
+      </c>
+      <c r="Y16" s="97">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+    </row>
+    <row r="17" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="27">
+        <v>13</v>
+      </c>
+      <c r="D17" s="27">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F17" s="27">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="H17" s="27">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="L17" s="27">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="M17" s="27">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="O17" s="27">
+        <v>13</v>
+      </c>
+      <c r="P17" s="27">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="Q17" s="27">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="R17" s="27">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="S17" s="27">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="T17" s="27">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="U17" s="27">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="V17" s="27">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="W17" s="27">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="X17" s="27">
+        <f t="shared" si="3"/>
+        <v>283</v>
+      </c>
+      <c r="Y17" s="27">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+      <c r="AA17" s="27">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="27">
+        <f t="shared" ref="AB17:AK17" si="12">AA17+30</f>
+        <v>43</v>
+      </c>
+      <c r="AC17" s="27">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="AD17" s="27">
+        <f t="shared" si="12"/>
+        <v>103</v>
+      </c>
+      <c r="AE17" s="27">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="AF17" s="27">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="AG17" s="27">
+        <f t="shared" si="12"/>
+        <v>193</v>
+      </c>
+      <c r="AH17" s="27">
+        <f t="shared" si="12"/>
+        <v>223</v>
+      </c>
+      <c r="AI17" s="27">
+        <f t="shared" si="12"/>
+        <v>253</v>
+      </c>
+      <c r="AJ17" s="27">
+        <f t="shared" si="12"/>
+        <v>283</v>
+      </c>
+      <c r="AK17" s="27">
+        <f t="shared" si="12"/>
+        <v>313</v>
+      </c>
+      <c r="AM17" s="31">
+        <v>13</v>
+      </c>
+      <c r="AN17" s="31">
+        <f t="shared" ref="AN17:AW17" si="13">AM17+30</f>
+        <v>43</v>
+      </c>
+      <c r="AO17" s="31">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="AP17" s="31">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+      <c r="AQ17" s="31">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+      <c r="AR17" s="31">
+        <f t="shared" si="13"/>
+        <v>163</v>
+      </c>
+      <c r="AS17" s="31">
+        <f t="shared" si="13"/>
+        <v>193</v>
+      </c>
+      <c r="AT17" s="31">
+        <f t="shared" si="13"/>
+        <v>223</v>
+      </c>
+      <c r="AU17" s="31">
+        <f t="shared" si="13"/>
+        <v>253</v>
+      </c>
+      <c r="AV17" s="31">
+        <f t="shared" si="13"/>
+        <v>283</v>
+      </c>
+      <c r="AW17" s="31">
+        <f t="shared" si="13"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="27">
+        <v>14</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="G18" s="27">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="L18" s="27">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="M18" s="27">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="O18" s="97">
+        <v>14</v>
+      </c>
+      <c r="P18" s="97">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="Q18" s="97">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="R18" s="97">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="S18" s="97">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="T18" s="97">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="U18" s="97">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="V18" s="97">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="W18" s="97">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="X18" s="97">
+        <f t="shared" si="3"/>
+        <v>284</v>
+      </c>
+      <c r="Y18" s="97">
+        <f t="shared" si="3"/>
+        <v>314</v>
+      </c>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+    </row>
+    <row r="19" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="27">
+        <v>15</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F19" s="27">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="H19" s="27">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="L19" s="27">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="M19" s="27">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="O19" s="97">
+        <v>15</v>
+      </c>
+      <c r="P19" s="97">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="Q19" s="97">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="R19" s="97">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="S19" s="97">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="T19" s="97">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="U19" s="97">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="V19" s="97">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="W19" s="97">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="X19" s="97">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="Y19" s="97">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+    </row>
+    <row r="20" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="27">
+        <v>16</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="H20" s="27">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="J20" s="27">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="K20" s="27">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="L20" s="27">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="M20" s="27">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="O20" s="97">
+        <v>16</v>
+      </c>
+      <c r="P20" s="97">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="Q20" s="97">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="R20" s="97">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="S20" s="97">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="T20" s="97">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="U20" s="97">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="V20" s="97">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="W20" s="97">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="X20" s="97">
+        <f t="shared" si="3"/>
+        <v>286</v>
+      </c>
+      <c r="Y20" s="97">
+        <f t="shared" si="3"/>
+        <v>316</v>
+      </c>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+    </row>
+    <row r="21" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="27">
+        <v>17</v>
+      </c>
+      <c r="D21" s="27">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="F21" s="27">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="G21" s="27">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="H21" s="27">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="J21" s="27">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="K21" s="27">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="L21" s="27">
+        <f t="shared" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="M21" s="27">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="O21" s="27">
+        <v>17</v>
+      </c>
+      <c r="P21" s="27">
+        <f t="shared" ref="P21:Y34" si="14">O21+30</f>
+        <v>47</v>
+      </c>
+      <c r="Q21" s="27">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="R21" s="27">
+        <f t="shared" si="14"/>
+        <v>107</v>
+      </c>
+      <c r="S21" s="27">
+        <f t="shared" si="14"/>
+        <v>137</v>
+      </c>
+      <c r="T21" s="27">
+        <f t="shared" si="14"/>
+        <v>167</v>
+      </c>
+      <c r="U21" s="27">
+        <f t="shared" si="14"/>
+        <v>197</v>
+      </c>
+      <c r="V21" s="27">
+        <f t="shared" si="14"/>
+        <v>227</v>
+      </c>
+      <c r="W21" s="27">
+        <f t="shared" si="14"/>
+        <v>257</v>
+      </c>
+      <c r="X21" s="27">
+        <f t="shared" si="14"/>
+        <v>287</v>
+      </c>
+      <c r="Y21" s="27">
+        <f t="shared" si="14"/>
+        <v>317</v>
+      </c>
+      <c r="AA21" s="27">
+        <v>17</v>
+      </c>
+      <c r="AB21" s="27">
+        <f t="shared" ref="AB21:AK21" si="15">AA21+30</f>
+        <v>47</v>
+      </c>
+      <c r="AC21" s="27">
+        <f t="shared" si="15"/>
+        <v>77</v>
+      </c>
+      <c r="AD21" s="27">
+        <f t="shared" si="15"/>
+        <v>107</v>
+      </c>
+      <c r="AE21" s="27">
+        <f t="shared" si="15"/>
+        <v>137</v>
+      </c>
+      <c r="AF21" s="27">
+        <f t="shared" si="15"/>
+        <v>167</v>
+      </c>
+      <c r="AG21" s="27">
+        <f t="shared" si="15"/>
+        <v>197</v>
+      </c>
+      <c r="AH21" s="27">
+        <f t="shared" si="15"/>
+        <v>227</v>
+      </c>
+      <c r="AI21" s="27">
+        <f t="shared" si="15"/>
+        <v>257</v>
+      </c>
+      <c r="AJ21" s="27">
+        <f t="shared" si="15"/>
+        <v>287</v>
+      </c>
+      <c r="AK21" s="27">
+        <f t="shared" si="15"/>
+        <v>317</v>
+      </c>
+      <c r="AM21" s="31">
+        <v>17</v>
+      </c>
+      <c r="AN21" s="31">
+        <f t="shared" ref="AN21:AW21" si="16">AM21+30</f>
+        <v>47</v>
+      </c>
+      <c r="AO21" s="31">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="AP21" s="31">
+        <f t="shared" si="16"/>
+        <v>107</v>
+      </c>
+      <c r="AQ21" s="31">
+        <f t="shared" si="16"/>
+        <v>137</v>
+      </c>
+      <c r="AR21" s="31">
+        <f t="shared" si="16"/>
+        <v>167</v>
+      </c>
+      <c r="AS21" s="31">
+        <f t="shared" si="16"/>
+        <v>197</v>
+      </c>
+      <c r="AT21" s="31">
+        <f t="shared" si="16"/>
+        <v>227</v>
+      </c>
+      <c r="AU21" s="31">
+        <f t="shared" si="16"/>
+        <v>257</v>
+      </c>
+      <c r="AV21" s="31">
+        <f t="shared" si="16"/>
+        <v>287</v>
+      </c>
+      <c r="AW21" s="31">
+        <f t="shared" si="16"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="27">
+        <v>18</v>
+      </c>
+      <c r="D22" s="27">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="F22" s="27">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="H22" s="27">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="K22" s="27">
+        <f t="shared" si="2"/>
+        <v>258</v>
+      </c>
+      <c r="L22" s="27">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="M22" s="27">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
+      <c r="O22" s="97">
+        <v>18</v>
+      </c>
+      <c r="P22" s="97">
+        <f t="shared" si="14"/>
+        <v>48</v>
+      </c>
+      <c r="Q22" s="97">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="R22" s="97">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="S22" s="97">
+        <f t="shared" si="14"/>
+        <v>138</v>
+      </c>
+      <c r="T22" s="97">
+        <f t="shared" si="14"/>
+        <v>168</v>
+      </c>
+      <c r="U22" s="97">
+        <f t="shared" si="14"/>
+        <v>198</v>
+      </c>
+      <c r="V22" s="97">
+        <f t="shared" si="14"/>
+        <v>228</v>
+      </c>
+      <c r="W22" s="97">
+        <f t="shared" si="14"/>
+        <v>258</v>
+      </c>
+      <c r="X22" s="97">
+        <f t="shared" si="14"/>
+        <v>288</v>
+      </c>
+      <c r="Y22" s="97">
+        <f t="shared" si="14"/>
+        <v>318</v>
+      </c>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+    </row>
+    <row r="23" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="27">
+        <v>19</v>
+      </c>
+      <c r="D23" s="27">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F23" s="27">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="L23" s="27">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="M23" s="27">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="O23" s="27">
+        <v>19</v>
+      </c>
+      <c r="P23" s="27">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="Q23" s="27">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="R23" s="27">
+        <f t="shared" si="14"/>
+        <v>109</v>
+      </c>
+      <c r="S23" s="27">
+        <f t="shared" si="14"/>
+        <v>139</v>
+      </c>
+      <c r="T23" s="27">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+      <c r="U23" s="27">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+      <c r="V23" s="27">
+        <f t="shared" si="14"/>
+        <v>229</v>
+      </c>
+      <c r="W23" s="27">
+        <f t="shared" si="14"/>
+        <v>259</v>
+      </c>
+      <c r="X23" s="27">
+        <f t="shared" si="14"/>
+        <v>289</v>
+      </c>
+      <c r="Y23" s="27">
+        <f t="shared" si="14"/>
+        <v>319</v>
+      </c>
+      <c r="AA23" s="27">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="27">
+        <f t="shared" ref="AB23:AK23" si="17">AA23+30</f>
+        <v>49</v>
+      </c>
+      <c r="AC23" s="27">
+        <f t="shared" si="17"/>
+        <v>79</v>
+      </c>
+      <c r="AD23" s="27">
+        <f t="shared" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="AE23" s="27">
+        <f t="shared" si="17"/>
+        <v>139</v>
+      </c>
+      <c r="AF23" s="27">
+        <f t="shared" si="17"/>
+        <v>169</v>
+      </c>
+      <c r="AG23" s="27">
+        <f t="shared" si="17"/>
+        <v>199</v>
+      </c>
+      <c r="AH23" s="27">
+        <f t="shared" si="17"/>
+        <v>229</v>
+      </c>
+      <c r="AI23" s="27">
+        <f t="shared" si="17"/>
+        <v>259</v>
+      </c>
+      <c r="AJ23" s="27">
+        <f t="shared" si="17"/>
+        <v>289</v>
+      </c>
+      <c r="AK23" s="27">
+        <f t="shared" si="17"/>
+        <v>319</v>
+      </c>
+      <c r="AM23" s="31">
+        <v>19</v>
+      </c>
+      <c r="AN23" s="31">
+        <f t="shared" ref="AN23:AW23" si="18">AM23+30</f>
+        <v>49</v>
+      </c>
+      <c r="AO23" s="31">
+        <f t="shared" si="18"/>
+        <v>79</v>
+      </c>
+      <c r="AP23" s="31">
+        <f t="shared" si="18"/>
+        <v>109</v>
+      </c>
+      <c r="AQ23" s="31">
+        <f t="shared" si="18"/>
+        <v>139</v>
+      </c>
+      <c r="AR23" s="31">
+        <f t="shared" si="18"/>
+        <v>169</v>
+      </c>
+      <c r="AS23" s="31">
+        <f t="shared" si="18"/>
+        <v>199</v>
+      </c>
+      <c r="AT23" s="31">
+        <f t="shared" si="18"/>
+        <v>229</v>
+      </c>
+      <c r="AU23" s="31">
+        <f t="shared" si="18"/>
+        <v>259</v>
+      </c>
+      <c r="AV23" s="31">
+        <f t="shared" si="18"/>
+        <v>289</v>
+      </c>
+      <c r="AW23" s="31">
+        <f t="shared" si="18"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="27">
+        <v>20</v>
+      </c>
+      <c r="D24" s="27">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F24" s="27">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="H24" s="27">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="J24" s="27">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="K24" s="27">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="L24" s="27">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="M24" s="27">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="O24" s="97">
+        <v>20</v>
+      </c>
+      <c r="P24" s="97">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="Q24" s="97">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="R24" s="97">
+        <f t="shared" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="S24" s="97">
+        <f t="shared" si="14"/>
+        <v>140</v>
+      </c>
+      <c r="T24" s="97">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="U24" s="97">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="V24" s="97">
+        <f t="shared" si="14"/>
+        <v>230</v>
+      </c>
+      <c r="W24" s="97">
+        <f t="shared" si="14"/>
+        <v>260</v>
+      </c>
+      <c r="X24" s="97">
+        <f t="shared" si="14"/>
+        <v>290</v>
+      </c>
+      <c r="Y24" s="97">
+        <f t="shared" si="14"/>
+        <v>320</v>
+      </c>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="31"/>
+    </row>
+    <row r="25" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="27">
+        <v>21</v>
+      </c>
+      <c r="D25" s="27">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="F25" s="27">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="G25" s="27">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="H25" s="27">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="J25" s="27">
+        <f t="shared" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="K25" s="27">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="L25" s="27">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="M25" s="27">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="O25" s="27">
+        <v>21</v>
+      </c>
+      <c r="P25" s="27">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="Q25" s="27">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="R25" s="27">
+        <f t="shared" si="14"/>
+        <v>111</v>
+      </c>
+      <c r="S25" s="27">
+        <f t="shared" si="14"/>
+        <v>141</v>
+      </c>
+      <c r="T25" s="27">
+        <f t="shared" si="14"/>
+        <v>171</v>
+      </c>
+      <c r="U25" s="27">
+        <f t="shared" si="14"/>
+        <v>201</v>
+      </c>
+      <c r="V25" s="27">
+        <f t="shared" si="14"/>
+        <v>231</v>
+      </c>
+      <c r="W25" s="27">
+        <f t="shared" si="14"/>
+        <v>261</v>
+      </c>
+      <c r="X25" s="27">
+        <f t="shared" si="14"/>
+        <v>291</v>
+      </c>
+      <c r="Y25" s="27">
+        <f t="shared" si="14"/>
+        <v>321</v>
+      </c>
+      <c r="AA25" s="97">
+        <v>21</v>
+      </c>
+      <c r="AB25" s="97">
+        <f t="shared" ref="AB25:AK25" si="19">AA25+30</f>
+        <v>51</v>
+      </c>
+      <c r="AC25" s="97">
+        <f t="shared" si="19"/>
+        <v>81</v>
+      </c>
+      <c r="AD25" s="97">
+        <f t="shared" si="19"/>
+        <v>111</v>
+      </c>
+      <c r="AE25" s="97">
+        <f t="shared" si="19"/>
+        <v>141</v>
+      </c>
+      <c r="AF25" s="97">
+        <f t="shared" si="19"/>
+        <v>171</v>
+      </c>
+      <c r="AG25" s="97">
+        <f t="shared" si="19"/>
+        <v>201</v>
+      </c>
+      <c r="AH25" s="97">
+        <f t="shared" si="19"/>
+        <v>231</v>
+      </c>
+      <c r="AI25" s="97">
+        <f t="shared" si="19"/>
+        <v>261</v>
+      </c>
+      <c r="AJ25" s="97">
+        <f t="shared" si="19"/>
+        <v>291</v>
+      </c>
+      <c r="AK25" s="97">
+        <f t="shared" si="19"/>
+        <v>321</v>
+      </c>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="31"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="31"/>
+      <c r="AW25" s="31"/>
+    </row>
+    <row r="26" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="27">
+        <v>22</v>
+      </c>
+      <c r="D26" s="27">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F26" s="27">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="G26" s="27">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="H26" s="27">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+      <c r="J26" s="27">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="K26" s="27">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="L26" s="27">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="M26" s="27">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="O26" s="97">
+        <v>22</v>
+      </c>
+      <c r="P26" s="97">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="Q26" s="97">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="R26" s="97">
+        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
+      <c r="S26" s="97">
+        <f t="shared" si="14"/>
+        <v>142</v>
+      </c>
+      <c r="T26" s="97">
+        <f t="shared" si="14"/>
+        <v>172</v>
+      </c>
+      <c r="U26" s="97">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+      <c r="V26" s="97">
+        <f t="shared" si="14"/>
+        <v>232</v>
+      </c>
+      <c r="W26" s="97">
+        <f t="shared" si="14"/>
+        <v>262</v>
+      </c>
+      <c r="X26" s="97">
+        <f t="shared" si="14"/>
+        <v>292</v>
+      </c>
+      <c r="Y26" s="97">
+        <f t="shared" si="14"/>
+        <v>322</v>
+      </c>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+    </row>
+    <row r="27" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="27">
+        <v>23</v>
+      </c>
+      <c r="D27" s="27">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="H27" s="27">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="J27" s="27">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="K27" s="27">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="L27" s="27">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="M27" s="27">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="O27" s="27">
+        <v>23</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="Q27" s="27">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="R27" s="27">
+        <f t="shared" si="14"/>
+        <v>113</v>
+      </c>
+      <c r="S27" s="27">
+        <f t="shared" si="14"/>
+        <v>143</v>
+      </c>
+      <c r="T27" s="27">
+        <f t="shared" si="14"/>
+        <v>173</v>
+      </c>
+      <c r="U27" s="27">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+      <c r="V27" s="27">
+        <f t="shared" si="14"/>
+        <v>233</v>
+      </c>
+      <c r="W27" s="27">
+        <f t="shared" si="14"/>
+        <v>263</v>
+      </c>
+      <c r="X27" s="27">
+        <f t="shared" si="14"/>
+        <v>293</v>
+      </c>
+      <c r="Y27" s="27">
+        <f t="shared" si="14"/>
+        <v>323</v>
+      </c>
+      <c r="AA27" s="27">
+        <v>23</v>
+      </c>
+      <c r="AB27" s="27">
+        <f t="shared" ref="AB27:AK27" si="20">AA27+30</f>
+        <v>53</v>
+      </c>
+      <c r="AC27" s="27">
+        <f t="shared" si="20"/>
+        <v>83</v>
+      </c>
+      <c r="AD27" s="27">
+        <f t="shared" si="20"/>
+        <v>113</v>
+      </c>
+      <c r="AE27" s="27">
+        <f t="shared" si="20"/>
+        <v>143</v>
+      </c>
+      <c r="AF27" s="27">
+        <f t="shared" si="20"/>
+        <v>173</v>
+      </c>
+      <c r="AG27" s="27">
+        <f t="shared" si="20"/>
+        <v>203</v>
+      </c>
+      <c r="AH27" s="27">
+        <f t="shared" si="20"/>
+        <v>233</v>
+      </c>
+      <c r="AI27" s="27">
+        <f t="shared" si="20"/>
+        <v>263</v>
+      </c>
+      <c r="AJ27" s="27">
+        <f t="shared" si="20"/>
+        <v>293</v>
+      </c>
+      <c r="AK27" s="27">
+        <f t="shared" si="20"/>
+        <v>323</v>
+      </c>
+      <c r="AM27" s="31">
+        <v>23</v>
+      </c>
+      <c r="AN27" s="31">
+        <f t="shared" ref="AN27:AW27" si="21">AM27+30</f>
+        <v>53</v>
+      </c>
+      <c r="AO27" s="31">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+      <c r="AP27" s="31">
+        <f t="shared" si="21"/>
+        <v>113</v>
+      </c>
+      <c r="AQ27" s="31">
+        <f t="shared" si="21"/>
+        <v>143</v>
+      </c>
+      <c r="AR27" s="31">
+        <f t="shared" si="21"/>
+        <v>173</v>
+      </c>
+      <c r="AS27" s="31">
+        <f t="shared" si="21"/>
+        <v>203</v>
+      </c>
+      <c r="AT27" s="31">
+        <f t="shared" si="21"/>
+        <v>233</v>
+      </c>
+      <c r="AU27" s="31">
+        <f t="shared" si="21"/>
+        <v>263</v>
+      </c>
+      <c r="AV27" s="31">
+        <f t="shared" si="21"/>
+        <v>293</v>
+      </c>
+      <c r="AW27" s="31">
+        <f t="shared" si="21"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="27">
+        <v>24</v>
+      </c>
+      <c r="D28" s="27">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J28" s="27">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="K28" s="27">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="L28" s="27">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+      <c r="M28" s="27">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="O28" s="97">
+        <v>24</v>
+      </c>
+      <c r="P28" s="97">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="Q28" s="97">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="R28" s="97">
+        <f t="shared" si="14"/>
+        <v>114</v>
+      </c>
+      <c r="S28" s="97">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="T28" s="97">
+        <f t="shared" si="14"/>
+        <v>174</v>
+      </c>
+      <c r="U28" s="97">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+      <c r="V28" s="97">
+        <f t="shared" si="14"/>
+        <v>234</v>
+      </c>
+      <c r="W28" s="97">
+        <f t="shared" si="14"/>
+        <v>264</v>
+      </c>
+      <c r="X28" s="97">
+        <f t="shared" si="14"/>
+        <v>294</v>
+      </c>
+      <c r="Y28" s="97">
+        <f t="shared" si="14"/>
+        <v>324</v>
+      </c>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+    </row>
+    <row r="29" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="27">
+        <v>25</v>
+      </c>
+      <c r="D29" s="27">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F29" s="27">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="G29" s="27">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="H29" s="27">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="J29" s="27">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+      <c r="K29" s="27">
+        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="L29" s="27">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="M29" s="27">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="O29" s="97">
+        <v>25</v>
+      </c>
+      <c r="P29" s="97">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="Q29" s="97">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="R29" s="97">
+        <f t="shared" si="14"/>
+        <v>115</v>
+      </c>
+      <c r="S29" s="97">
+        <f t="shared" si="14"/>
+        <v>145</v>
+      </c>
+      <c r="T29" s="97">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+      <c r="U29" s="97">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="V29" s="97">
+        <f t="shared" si="14"/>
+        <v>235</v>
+      </c>
+      <c r="W29" s="97">
+        <f t="shared" si="14"/>
+        <v>265</v>
+      </c>
+      <c r="X29" s="97">
+        <f t="shared" si="14"/>
+        <v>295</v>
+      </c>
+      <c r="Y29" s="97">
+        <f t="shared" si="14"/>
+        <v>325</v>
+      </c>
+      <c r="AM29" s="31"/>
+      <c r="AN29" s="31"/>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="31"/>
+      <c r="AQ29" s="31"/>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+      <c r="AW29" s="31"/>
+    </row>
+    <row r="30" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="27">
+        <v>26</v>
+      </c>
+      <c r="D30" s="27">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" ref="E30:M34" si="22">D30+30</f>
+        <v>86</v>
+      </c>
+      <c r="F30" s="27">
+        <f t="shared" si="22"/>
+        <v>116</v>
+      </c>
+      <c r="G30" s="27">
+        <f t="shared" si="22"/>
+        <v>146</v>
+      </c>
+      <c r="H30" s="27">
+        <f t="shared" si="22"/>
+        <v>176</v>
+      </c>
+      <c r="I30" s="27">
+        <f t="shared" si="22"/>
+        <v>206</v>
+      </c>
+      <c r="J30" s="27">
+        <f t="shared" si="22"/>
+        <v>236</v>
+      </c>
+      <c r="K30" s="27">
+        <f t="shared" si="22"/>
+        <v>266</v>
+      </c>
+      <c r="L30" s="27">
+        <f t="shared" si="22"/>
+        <v>296</v>
+      </c>
+      <c r="M30" s="27">
+        <f t="shared" si="22"/>
+        <v>326</v>
+      </c>
+      <c r="O30" s="97">
+        <v>26</v>
+      </c>
+      <c r="P30" s="97">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
+      <c r="Q30" s="97">
+        <f t="shared" si="14"/>
+        <v>86</v>
+      </c>
+      <c r="R30" s="97">
+        <f t="shared" si="14"/>
+        <v>116</v>
+      </c>
+      <c r="S30" s="97">
+        <f t="shared" si="14"/>
+        <v>146</v>
+      </c>
+      <c r="T30" s="97">
+        <f t="shared" si="14"/>
+        <v>176</v>
+      </c>
+      <c r="U30" s="97">
+        <f t="shared" si="14"/>
+        <v>206</v>
+      </c>
+      <c r="V30" s="97">
+        <f t="shared" si="14"/>
+        <v>236</v>
+      </c>
+      <c r="W30" s="97">
+        <f t="shared" si="14"/>
+        <v>266</v>
+      </c>
+      <c r="X30" s="97">
+        <f t="shared" si="14"/>
+        <v>296</v>
+      </c>
+      <c r="Y30" s="97">
+        <f t="shared" si="14"/>
+        <v>326</v>
+      </c>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+    </row>
+    <row r="31" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="27">
+        <v>27</v>
+      </c>
+      <c r="D31" s="27">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="22"/>
+        <v>87</v>
+      </c>
+      <c r="F31" s="27">
+        <f t="shared" si="22"/>
+        <v>117</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="22"/>
+        <v>147</v>
+      </c>
+      <c r="H31" s="27">
+        <f t="shared" si="22"/>
+        <v>177</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" si="22"/>
+        <v>207</v>
+      </c>
+      <c r="J31" s="27">
+        <f t="shared" si="22"/>
+        <v>237</v>
+      </c>
+      <c r="K31" s="27">
+        <f t="shared" si="22"/>
+        <v>267</v>
+      </c>
+      <c r="L31" s="27">
+        <f t="shared" si="22"/>
+        <v>297</v>
+      </c>
+      <c r="M31" s="27">
+        <f t="shared" si="22"/>
+        <v>327</v>
+      </c>
+      <c r="O31" s="27">
+        <v>27</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="Q31" s="27">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="R31" s="27">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+      <c r="S31" s="27">
+        <f t="shared" si="14"/>
+        <v>147</v>
+      </c>
+      <c r="T31" s="27">
+        <f t="shared" si="14"/>
+        <v>177</v>
+      </c>
+      <c r="U31" s="27">
+        <f t="shared" si="14"/>
+        <v>207</v>
+      </c>
+      <c r="V31" s="27">
+        <f t="shared" si="14"/>
+        <v>237</v>
+      </c>
+      <c r="W31" s="27">
+        <f t="shared" si="14"/>
+        <v>267</v>
+      </c>
+      <c r="X31" s="27">
+        <f t="shared" si="14"/>
+        <v>297</v>
+      </c>
+      <c r="Y31" s="27">
+        <f t="shared" si="14"/>
+        <v>327</v>
+      </c>
+      <c r="AA31" s="97">
+        <v>27</v>
+      </c>
+      <c r="AB31" s="97">
+        <f t="shared" ref="AB31:AK31" si="23">AA31+30</f>
+        <v>57</v>
+      </c>
+      <c r="AC31" s="97">
+        <f t="shared" si="23"/>
+        <v>87</v>
+      </c>
+      <c r="AD31" s="97">
+        <f t="shared" si="23"/>
+        <v>117</v>
+      </c>
+      <c r="AE31" s="97">
+        <f t="shared" si="23"/>
+        <v>147</v>
+      </c>
+      <c r="AF31" s="97">
+        <f t="shared" si="23"/>
+        <v>177</v>
+      </c>
+      <c r="AG31" s="97">
+        <f t="shared" si="23"/>
+        <v>207</v>
+      </c>
+      <c r="AH31" s="97">
+        <f t="shared" si="23"/>
+        <v>237</v>
+      </c>
+      <c r="AI31" s="97">
+        <f t="shared" si="23"/>
+        <v>267</v>
+      </c>
+      <c r="AJ31" s="97">
+        <f t="shared" si="23"/>
+        <v>297</v>
+      </c>
+      <c r="AK31" s="97">
+        <f t="shared" si="23"/>
+        <v>327</v>
+      </c>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+      <c r="AW31" s="31"/>
+    </row>
+    <row r="32" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="27">
+        <v>28</v>
+      </c>
+      <c r="D32" s="27">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="22"/>
+        <v>88</v>
+      </c>
+      <c r="F32" s="27">
+        <f t="shared" si="22"/>
+        <v>118</v>
+      </c>
+      <c r="G32" s="27">
+        <f t="shared" si="22"/>
+        <v>148</v>
+      </c>
+      <c r="H32" s="27">
+        <f t="shared" si="22"/>
+        <v>178</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" si="22"/>
+        <v>208</v>
+      </c>
+      <c r="J32" s="27">
+        <f t="shared" si="22"/>
+        <v>238</v>
+      </c>
+      <c r="K32" s="27">
+        <f t="shared" si="22"/>
+        <v>268</v>
+      </c>
+      <c r="L32" s="27">
+        <f t="shared" si="22"/>
+        <v>298</v>
+      </c>
+      <c r="M32" s="27">
+        <f t="shared" si="22"/>
+        <v>328</v>
+      </c>
+      <c r="O32" s="97">
+        <v>28</v>
+      </c>
+      <c r="P32" s="97">
+        <f t="shared" si="14"/>
+        <v>58</v>
+      </c>
+      <c r="Q32" s="97">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="R32" s="97">
+        <f t="shared" si="14"/>
+        <v>118</v>
+      </c>
+      <c r="S32" s="97">
+        <f t="shared" si="14"/>
+        <v>148</v>
+      </c>
+      <c r="T32" s="97">
+        <f t="shared" si="14"/>
+        <v>178</v>
+      </c>
+      <c r="U32" s="97">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="V32" s="97">
+        <f t="shared" si="14"/>
+        <v>238</v>
+      </c>
+      <c r="W32" s="97">
+        <f t="shared" si="14"/>
+        <v>268</v>
+      </c>
+      <c r="X32" s="97">
+        <f t="shared" si="14"/>
+        <v>298</v>
+      </c>
+      <c r="Y32" s="97">
+        <f t="shared" si="14"/>
+        <v>328</v>
+      </c>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
+      <c r="AW32" s="31"/>
+    </row>
+    <row r="33" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="27">
+        <v>29</v>
+      </c>
+      <c r="D33" s="27">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="22"/>
+        <v>89</v>
+      </c>
+      <c r="F33" s="27">
+        <f t="shared" si="22"/>
+        <v>119</v>
+      </c>
+      <c r="G33" s="27">
+        <f t="shared" si="22"/>
+        <v>149</v>
+      </c>
+      <c r="H33" s="27">
+        <f t="shared" si="22"/>
+        <v>179</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="22"/>
+        <v>209</v>
+      </c>
+      <c r="J33" s="27">
+        <f t="shared" si="22"/>
+        <v>239</v>
+      </c>
+      <c r="K33" s="27">
+        <f t="shared" si="22"/>
+        <v>269</v>
+      </c>
+      <c r="L33" s="27">
+        <f t="shared" si="22"/>
+        <v>299</v>
+      </c>
+      <c r="M33" s="27">
+        <f t="shared" si="22"/>
+        <v>329</v>
+      </c>
+      <c r="O33" s="27">
+        <v>29</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="Q33" s="27">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="R33" s="27">
+        <f t="shared" si="14"/>
+        <v>119</v>
+      </c>
+      <c r="S33" s="27">
+        <f t="shared" si="14"/>
+        <v>149</v>
+      </c>
+      <c r="T33" s="27">
+        <f t="shared" si="14"/>
+        <v>179</v>
+      </c>
+      <c r="U33" s="27">
+        <f t="shared" si="14"/>
+        <v>209</v>
+      </c>
+      <c r="V33" s="27">
+        <f t="shared" si="14"/>
+        <v>239</v>
+      </c>
+      <c r="W33" s="27">
+        <f t="shared" si="14"/>
+        <v>269</v>
+      </c>
+      <c r="X33" s="27">
+        <f t="shared" si="14"/>
+        <v>299</v>
+      </c>
+      <c r="Y33" s="27">
+        <f t="shared" si="14"/>
+        <v>329</v>
+      </c>
+      <c r="AA33" s="27">
+        <v>29</v>
+      </c>
+      <c r="AB33" s="27">
+        <f t="shared" ref="AB33:AK33" si="24">AA33+30</f>
+        <v>59</v>
+      </c>
+      <c r="AC33" s="27">
+        <f t="shared" si="24"/>
+        <v>89</v>
+      </c>
+      <c r="AD33" s="27">
+        <f t="shared" si="24"/>
+        <v>119</v>
+      </c>
+      <c r="AE33" s="27">
+        <f t="shared" si="24"/>
+        <v>149</v>
+      </c>
+      <c r="AF33" s="27">
+        <f t="shared" si="24"/>
+        <v>179</v>
+      </c>
+      <c r="AG33" s="27">
+        <f t="shared" si="24"/>
+        <v>209</v>
+      </c>
+      <c r="AH33" s="27">
+        <f t="shared" si="24"/>
+        <v>239</v>
+      </c>
+      <c r="AI33" s="27">
+        <f t="shared" si="24"/>
+        <v>269</v>
+      </c>
+      <c r="AJ33" s="27">
+        <f t="shared" si="24"/>
+        <v>299</v>
+      </c>
+      <c r="AK33" s="27">
+        <f t="shared" si="24"/>
+        <v>329</v>
+      </c>
+      <c r="AM33" s="31">
+        <v>29</v>
+      </c>
+      <c r="AN33" s="31">
+        <f t="shared" ref="AN33:AW33" si="25">AM33+30</f>
+        <v>59</v>
+      </c>
+      <c r="AO33" s="31">
+        <f t="shared" si="25"/>
+        <v>89</v>
+      </c>
+      <c r="AP33" s="31">
+        <f t="shared" si="25"/>
+        <v>119</v>
+      </c>
+      <c r="AQ33" s="31">
+        <f t="shared" si="25"/>
+        <v>149</v>
+      </c>
+      <c r="AR33" s="31">
+        <f t="shared" si="25"/>
+        <v>179</v>
+      </c>
+      <c r="AS33" s="31">
+        <f t="shared" si="25"/>
+        <v>209</v>
+      </c>
+      <c r="AT33" s="31">
+        <f t="shared" si="25"/>
+        <v>239</v>
+      </c>
+      <c r="AU33" s="31">
+        <f t="shared" si="25"/>
+        <v>269</v>
+      </c>
+      <c r="AV33" s="31">
+        <f t="shared" si="25"/>
+        <v>299</v>
+      </c>
+      <c r="AW33" s="31">
+        <f t="shared" si="25"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="3:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="27">
+        <v>30</v>
+      </c>
+      <c r="D34" s="27">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
+      <c r="F34" s="27">
+        <f t="shared" si="22"/>
+        <v>120</v>
+      </c>
+      <c r="G34" s="27">
+        <f t="shared" si="22"/>
+        <v>150</v>
+      </c>
+      <c r="H34" s="27">
+        <f t="shared" si="22"/>
+        <v>180</v>
+      </c>
+      <c r="I34" s="27">
+        <f t="shared" si="22"/>
+        <v>210</v>
+      </c>
+      <c r="J34" s="27">
+        <f t="shared" si="22"/>
+        <v>240</v>
+      </c>
+      <c r="K34" s="27">
+        <f t="shared" si="22"/>
+        <v>270</v>
+      </c>
+      <c r="L34" s="27">
+        <f t="shared" si="22"/>
+        <v>300</v>
+      </c>
+      <c r="M34" s="27">
+        <f t="shared" si="22"/>
+        <v>330</v>
+      </c>
+      <c r="O34" s="97">
+        <v>30</v>
+      </c>
+      <c r="P34" s="97">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="Q34" s="97">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="R34" s="97">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="S34" s="97">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="T34" s="97">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="U34" s="97">
+        <f t="shared" si="14"/>
+        <v>210</v>
+      </c>
+      <c r="V34" s="97">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="W34" s="97">
+        <f t="shared" si="14"/>
+        <v>270</v>
+      </c>
+      <c r="X34" s="97">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="Y34" s="97">
+        <f t="shared" si="14"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C37" s="31">
+        <v>1</v>
+      </c>
+      <c r="D37" s="31">
+        <f t="shared" ref="D37:M37" si="26">C37+30</f>
+        <v>31</v>
+      </c>
+      <c r="E37" s="31">
+        <f t="shared" si="26"/>
+        <v>61</v>
+      </c>
+      <c r="F37" s="31">
+        <f t="shared" si="26"/>
+        <v>91</v>
+      </c>
+      <c r="G37" s="31">
+        <f t="shared" si="26"/>
+        <v>121</v>
+      </c>
+      <c r="H37" s="31">
+        <f t="shared" si="26"/>
+        <v>151</v>
+      </c>
+      <c r="I37" s="31">
+        <f t="shared" si="26"/>
+        <v>181</v>
+      </c>
+      <c r="J37" s="31">
+        <f t="shared" si="26"/>
+        <v>211</v>
+      </c>
+      <c r="K37" s="31">
+        <f t="shared" si="26"/>
+        <v>241</v>
+      </c>
+      <c r="L37" s="31">
+        <f t="shared" si="26"/>
+        <v>271</v>
+      </c>
+      <c r="M37" s="31">
+        <f t="shared" si="26"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+    </row>
+    <row r="41" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+    </row>
+    <row r="42" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+    </row>
+    <row r="43" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C43" s="31">
+        <v>7</v>
+      </c>
+      <c r="D43" s="31">
+        <f t="shared" ref="D43:M43" si="27">C43+30</f>
+        <v>37</v>
+      </c>
+      <c r="E43" s="31">
+        <f t="shared" si="27"/>
+        <v>67</v>
+      </c>
+      <c r="F43" s="31">
+        <f t="shared" si="27"/>
+        <v>97</v>
+      </c>
+      <c r="G43" s="31">
+        <f t="shared" si="27"/>
+        <v>127</v>
+      </c>
+      <c r="H43" s="31">
+        <f t="shared" si="27"/>
+        <v>157</v>
+      </c>
+      <c r="I43" s="31">
+        <f t="shared" si="27"/>
+        <v>187</v>
+      </c>
+      <c r="J43" s="31">
+        <f t="shared" si="27"/>
+        <v>217</v>
+      </c>
+      <c r="K43" s="31">
+        <f t="shared" si="27"/>
+        <v>247</v>
+      </c>
+      <c r="L43" s="31">
+        <f t="shared" si="27"/>
+        <v>277</v>
+      </c>
+      <c r="M43" s="31">
+        <f t="shared" si="27"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+    </row>
+    <row r="45" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+    </row>
+    <row r="46" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+    </row>
+    <row r="47" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C47" s="31">
+        <v>11</v>
+      </c>
+      <c r="D47" s="31">
+        <f t="shared" ref="D47:M47" si="28">C47+30</f>
+        <v>41</v>
+      </c>
+      <c r="E47" s="31">
+        <f t="shared" si="28"/>
+        <v>71</v>
+      </c>
+      <c r="F47" s="31">
+        <f t="shared" si="28"/>
+        <v>101</v>
+      </c>
+      <c r="G47" s="31">
+        <f t="shared" si="28"/>
+        <v>131</v>
+      </c>
+      <c r="H47" s="31">
+        <f t="shared" si="28"/>
+        <v>161</v>
+      </c>
+      <c r="I47" s="31">
+        <f t="shared" si="28"/>
+        <v>191</v>
+      </c>
+      <c r="J47" s="31">
+        <f t="shared" si="28"/>
+        <v>221</v>
+      </c>
+      <c r="K47" s="31">
+        <f t="shared" si="28"/>
+        <v>251</v>
+      </c>
+      <c r="L47" s="31">
+        <f t="shared" si="28"/>
+        <v>281</v>
+      </c>
+      <c r="M47" s="31">
+        <f t="shared" si="28"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="3:49" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="31">
+        <v>13</v>
+      </c>
+      <c r="D49" s="31">
+        <f t="shared" ref="D49:M49" si="29">C49+30</f>
+        <v>43</v>
+      </c>
+      <c r="E49" s="31">
+        <f t="shared" si="29"/>
+        <v>73</v>
+      </c>
+      <c r="F49" s="31">
+        <f t="shared" si="29"/>
+        <v>103</v>
+      </c>
+      <c r="G49" s="31">
+        <f t="shared" si="29"/>
+        <v>133</v>
+      </c>
+      <c r="H49" s="31">
+        <f t="shared" si="29"/>
+        <v>163</v>
+      </c>
+      <c r="I49" s="31">
+        <f t="shared" si="29"/>
+        <v>193</v>
+      </c>
+      <c r="J49" s="31">
+        <f t="shared" si="29"/>
+        <v>223</v>
+      </c>
+      <c r="K49" s="31">
+        <f t="shared" si="29"/>
+        <v>253</v>
+      </c>
+      <c r="L49" s="31">
+        <f t="shared" si="29"/>
+        <v>283</v>
+      </c>
+      <c r="M49" s="31">
+        <f t="shared" si="29"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+    </row>
+    <row r="51" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+    </row>
+    <row r="52" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="31">
+        <v>17</v>
+      </c>
+      <c r="D53" s="31">
+        <f t="shared" ref="D53:M53" si="30">C53+30</f>
+        <v>47</v>
+      </c>
+      <c r="E53" s="31">
+        <f t="shared" si="30"/>
+        <v>77</v>
+      </c>
+      <c r="F53" s="31">
+        <f t="shared" si="30"/>
+        <v>107</v>
+      </c>
+      <c r="G53" s="31">
+        <f t="shared" si="30"/>
+        <v>137</v>
+      </c>
+      <c r="H53" s="31">
+        <f t="shared" si="30"/>
+        <v>167</v>
+      </c>
+      <c r="I53" s="31">
+        <f t="shared" si="30"/>
+        <v>197</v>
+      </c>
+      <c r="J53" s="31">
+        <f t="shared" si="30"/>
+        <v>227</v>
+      </c>
+      <c r="K53" s="31">
+        <f t="shared" si="30"/>
+        <v>257</v>
+      </c>
+      <c r="L53" s="31">
+        <f t="shared" si="30"/>
+        <v>287</v>
+      </c>
+      <c r="M53" s="31">
+        <f t="shared" si="30"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="31">
+        <v>19</v>
+      </c>
+      <c r="D55" s="31">
+        <f t="shared" ref="D55:M55" si="31">C55+30</f>
+        <v>49</v>
+      </c>
+      <c r="E55" s="31">
+        <f t="shared" si="31"/>
+        <v>79</v>
+      </c>
+      <c r="F55" s="31">
+        <f t="shared" si="31"/>
+        <v>109</v>
+      </c>
+      <c r="G55" s="31">
+        <f t="shared" si="31"/>
+        <v>139</v>
+      </c>
+      <c r="H55" s="31">
+        <f t="shared" si="31"/>
+        <v>169</v>
+      </c>
+      <c r="I55" s="31">
+        <f t="shared" si="31"/>
+        <v>199</v>
+      </c>
+      <c r="J55" s="31">
+        <f t="shared" si="31"/>
+        <v>229</v>
+      </c>
+      <c r="K55" s="31">
+        <f t="shared" si="31"/>
+        <v>259</v>
+      </c>
+      <c r="L55" s="31">
+        <f t="shared" si="31"/>
+        <v>289</v>
+      </c>
+      <c r="M55" s="31">
+        <f t="shared" si="31"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+    </row>
+    <row r="57" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+    </row>
+    <row r="58" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C59" s="31">
+        <v>23</v>
+      </c>
+      <c r="D59" s="31">
+        <f t="shared" ref="D59:M59" si="32">C59+30</f>
+        <v>53</v>
+      </c>
+      <c r="E59" s="31">
+        <f t="shared" si="32"/>
+        <v>83</v>
+      </c>
+      <c r="F59" s="31">
+        <f t="shared" si="32"/>
+        <v>113</v>
+      </c>
+      <c r="G59" s="31">
+        <f t="shared" si="32"/>
+        <v>143</v>
+      </c>
+      <c r="H59" s="31">
+        <f t="shared" si="32"/>
+        <v>173</v>
+      </c>
+      <c r="I59" s="31">
+        <f t="shared" si="32"/>
+        <v>203</v>
+      </c>
+      <c r="J59" s="31">
+        <f t="shared" si="32"/>
+        <v>233</v>
+      </c>
+      <c r="K59" s="31">
+        <f t="shared" si="32"/>
+        <v>263</v>
+      </c>
+      <c r="L59" s="31">
+        <f t="shared" si="32"/>
+        <v>293</v>
+      </c>
+      <c r="M59" s="31">
+        <f t="shared" si="32"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+    </row>
+    <row r="61" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+    </row>
+    <row r="62" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+    </row>
+    <row r="63" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+    </row>
+    <row r="64" spans="3:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="31">
+        <v>29</v>
+      </c>
+      <c r="D65" s="31">
+        <f t="shared" ref="D65:M65" si="33">C65+30</f>
+        <v>59</v>
+      </c>
+      <c r="E65" s="31">
+        <f t="shared" si="33"/>
+        <v>89</v>
+      </c>
+      <c r="F65" s="31">
+        <f t="shared" si="33"/>
+        <v>119</v>
+      </c>
+      <c r="G65" s="31">
+        <f t="shared" si="33"/>
+        <v>149</v>
+      </c>
+      <c r="H65" s="31">
+        <f t="shared" si="33"/>
+        <v>179</v>
+      </c>
+      <c r="I65" s="31">
+        <f t="shared" si="33"/>
+        <v>209</v>
+      </c>
+      <c r="J65" s="31">
+        <f t="shared" si="33"/>
+        <v>239</v>
+      </c>
+      <c r="K65" s="31">
+        <f t="shared" si="33"/>
+        <v>269</v>
+      </c>
+      <c r="L65" s="31">
+        <f t="shared" si="33"/>
+        <v>299</v>
+      </c>
+      <c r="M65" s="31">
+        <f t="shared" si="33"/>
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>